--- a/data/dataset_v3.xlsx
+++ b/data/dataset_v3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U612"/>
+  <dimension ref="A1:V612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,11 @@
           <t>Loan_Status</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Loan_ID</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +609,9 @@
       <c r="U2" t="n">
         <v>1</v>
       </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -669,6 +677,9 @@
       <c r="U3" t="n">
         <v>0</v>
       </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +745,9 @@
       <c r="U4" t="n">
         <v>1</v>
       </c>
+      <c r="V4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -799,6 +813,9 @@
       <c r="U5" t="n">
         <v>1</v>
       </c>
+      <c r="V5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -864,6 +881,9 @@
       <c r="U6" t="n">
         <v>1</v>
       </c>
+      <c r="V6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +949,9 @@
       <c r="U7" t="n">
         <v>1</v>
       </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -994,6 +1017,9 @@
       <c r="U8" t="n">
         <v>1</v>
       </c>
+      <c r="V8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1059,6 +1085,9 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
+      <c r="V9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1124,6 +1153,9 @@
       <c r="U10" t="n">
         <v>1</v>
       </c>
+      <c r="V10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1189,6 +1221,9 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
+      <c r="V11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1254,6 +1289,9 @@
       <c r="U12" t="n">
         <v>1</v>
       </c>
+      <c r="V12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1319,6 +1357,9 @@
       <c r="U13" t="n">
         <v>1</v>
       </c>
+      <c r="V13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1425,9 @@
       <c r="U14" t="n">
         <v>1</v>
       </c>
+      <c r="V14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1449,6 +1493,9 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
+      <c r="V15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1514,6 +1561,9 @@
       <c r="U16" t="n">
         <v>1</v>
       </c>
+      <c r="V16" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1579,6 +1629,9 @@
       <c r="U17" t="n">
         <v>1</v>
       </c>
+      <c r="V17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1644,6 +1697,9 @@
       <c r="U18" t="n">
         <v>1</v>
       </c>
+      <c r="V18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1709,6 +1765,9 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
+      <c r="V19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1774,6 +1833,9 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
+      <c r="V20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1839,6 +1901,9 @@
       <c r="U21" t="n">
         <v>1</v>
       </c>
+      <c r="V21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1904,6 +1969,9 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
+      <c r="V22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1969,6 +2037,9 @@
       <c r="U23" t="n">
         <v>1</v>
       </c>
+      <c r="V23" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2034,6 +2105,9 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
+      <c r="V24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2099,6 +2173,9 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
+      <c r="V25" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2164,6 +2241,9 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
+      <c r="V26" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2229,6 +2309,9 @@
       <c r="U27" t="n">
         <v>1</v>
       </c>
+      <c r="V27" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2294,6 +2377,9 @@
       <c r="U28" t="n">
         <v>1</v>
       </c>
+      <c r="V28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2359,6 +2445,9 @@
       <c r="U29" t="n">
         <v>1</v>
       </c>
+      <c r="V29" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2424,6 +2513,9 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
+      <c r="V30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2489,6 +2581,9 @@
       <c r="U31" t="n">
         <v>1</v>
       </c>
+      <c r="V31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2554,6 +2649,9 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
+      <c r="V32" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2619,6 +2717,9 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
+      <c r="V33" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2684,6 +2785,9 @@
       <c r="U34" t="n">
         <v>0</v>
       </c>
+      <c r="V34" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2749,6 +2853,9 @@
       <c r="U35" t="n">
         <v>1</v>
       </c>
+      <c r="V35" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2814,6 +2921,9 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
+      <c r="V36" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2879,6 +2989,9 @@
       <c r="U37" t="n">
         <v>1</v>
       </c>
+      <c r="V37" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2944,6 +3057,9 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
+      <c r="V38" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3009,6 +3125,9 @@
       <c r="U39" t="n">
         <v>1</v>
       </c>
+      <c r="V39" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3074,6 +3193,9 @@
       <c r="U40" t="n">
         <v>1</v>
       </c>
+      <c r="V40" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3139,6 +3261,9 @@
       <c r="U41" t="n">
         <v>1</v>
       </c>
+      <c r="V41" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3204,6 +3329,9 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
+      <c r="V42" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3269,6 +3397,9 @@
       <c r="U43" t="n">
         <v>1</v>
       </c>
+      <c r="V43" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3334,6 +3465,9 @@
       <c r="U44" t="n">
         <v>1</v>
       </c>
+      <c r="V44" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3399,6 +3533,9 @@
       <c r="U45" t="n">
         <v>1</v>
       </c>
+      <c r="V45" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3464,6 +3601,9 @@
       <c r="U46" t="n">
         <v>1</v>
       </c>
+      <c r="V46" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3529,6 +3669,9 @@
       <c r="U47" t="n">
         <v>1</v>
       </c>
+      <c r="V47" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3594,6 +3737,9 @@
       <c r="U48" t="n">
         <v>1</v>
       </c>
+      <c r="V48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3659,6 +3805,9 @@
       <c r="U49" t="n">
         <v>1</v>
       </c>
+      <c r="V49" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3724,6 +3873,9 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
+      <c r="V50" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3789,6 +3941,9 @@
       <c r="U51" t="n">
         <v>1</v>
       </c>
+      <c r="V51" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3854,6 +4009,9 @@
       <c r="U52" t="n">
         <v>1</v>
       </c>
+      <c r="V52" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3919,6 +4077,9 @@
       <c r="U53" t="n">
         <v>1</v>
       </c>
+      <c r="V53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3984,6 +4145,9 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
+      <c r="V54" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4049,6 +4213,9 @@
       <c r="U55" t="n">
         <v>0</v>
       </c>
+      <c r="V55" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4114,6 +4281,9 @@
       <c r="U56" t="n">
         <v>0</v>
       </c>
+      <c r="V56" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4179,6 +4349,9 @@
       <c r="U57" t="n">
         <v>1</v>
       </c>
+      <c r="V57" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4244,6 +4417,9 @@
       <c r="U58" t="n">
         <v>1</v>
       </c>
+      <c r="V58" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4309,6 +4485,9 @@
       <c r="U59" t="n">
         <v>0</v>
       </c>
+      <c r="V59" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4374,6 +4553,9 @@
       <c r="U60" t="n">
         <v>1</v>
       </c>
+      <c r="V60" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4439,6 +4621,9 @@
       <c r="U61" t="n">
         <v>1</v>
       </c>
+      <c r="V61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4504,6 +4689,9 @@
       <c r="U62" t="n">
         <v>1</v>
       </c>
+      <c r="V62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4569,6 +4757,9 @@
       <c r="U63" t="n">
         <v>1</v>
       </c>
+      <c r="V63" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4634,6 +4825,9 @@
       <c r="U64" t="n">
         <v>0</v>
       </c>
+      <c r="V64" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4699,6 +4893,9 @@
       <c r="U65" t="n">
         <v>0</v>
       </c>
+      <c r="V65" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4764,6 +4961,9 @@
       <c r="U66" t="n">
         <v>0</v>
       </c>
+      <c r="V66" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4829,6 +5029,9 @@
       <c r="U67" t="n">
         <v>0</v>
       </c>
+      <c r="V67" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4894,6 +5097,9 @@
       <c r="U68" t="n">
         <v>0</v>
       </c>
+      <c r="V68" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4959,6 +5165,9 @@
       <c r="U69" t="n">
         <v>1</v>
       </c>
+      <c r="V69" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5024,6 +5233,9 @@
       <c r="U70" t="n">
         <v>1</v>
       </c>
+      <c r="V70" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5089,6 +5301,9 @@
       <c r="U71" t="n">
         <v>0</v>
       </c>
+      <c r="V71" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5154,6 +5369,9 @@
       <c r="U72" t="n">
         <v>1</v>
       </c>
+      <c r="V72" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5219,6 +5437,9 @@
       <c r="U73" t="n">
         <v>1</v>
       </c>
+      <c r="V73" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5284,6 +5505,9 @@
       <c r="U74" t="n">
         <v>1</v>
       </c>
+      <c r="V74" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5349,6 +5573,9 @@
       <c r="U75" t="n">
         <v>0</v>
       </c>
+      <c r="V75" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5414,6 +5641,9 @@
       <c r="U76" t="n">
         <v>1</v>
       </c>
+      <c r="V76" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5479,6 +5709,9 @@
       <c r="U77" t="n">
         <v>0</v>
       </c>
+      <c r="V77" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5544,6 +5777,9 @@
       <c r="U78" t="n">
         <v>0</v>
       </c>
+      <c r="V78" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5609,6 +5845,9 @@
       <c r="U79" t="n">
         <v>0</v>
       </c>
+      <c r="V79" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5674,6 +5913,9 @@
       <c r="U80" t="n">
         <v>0</v>
       </c>
+      <c r="V80" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5739,6 +5981,9 @@
       <c r="U81" t="n">
         <v>1</v>
       </c>
+      <c r="V81" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5804,6 +6049,9 @@
       <c r="U82" t="n">
         <v>1</v>
       </c>
+      <c r="V82" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5869,6 +6117,9 @@
       <c r="U83" t="n">
         <v>1</v>
       </c>
+      <c r="V83" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5934,6 +6185,9 @@
       <c r="U84" t="n">
         <v>0</v>
       </c>
+      <c r="V84" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5999,6 +6253,9 @@
       <c r="U85" t="n">
         <v>0</v>
       </c>
+      <c r="V85" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6064,6 +6321,9 @@
       <c r="U86" t="n">
         <v>1</v>
       </c>
+      <c r="V86" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6129,6 +6389,9 @@
       <c r="U87" t="n">
         <v>1</v>
       </c>
+      <c r="V87" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6194,6 +6457,9 @@
       <c r="U88" t="n">
         <v>1</v>
       </c>
+      <c r="V88" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6259,6 +6525,9 @@
       <c r="U89" t="n">
         <v>1</v>
       </c>
+      <c r="V89" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6324,6 +6593,9 @@
       <c r="U90" t="n">
         <v>1</v>
       </c>
+      <c r="V90" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6389,6 +6661,9 @@
       <c r="U91" t="n">
         <v>1</v>
       </c>
+      <c r="V91" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6454,6 +6729,9 @@
       <c r="U92" t="n">
         <v>1</v>
       </c>
+      <c r="V92" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6519,6 +6797,9 @@
       <c r="U93" t="n">
         <v>1</v>
       </c>
+      <c r="V93" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6584,6 +6865,9 @@
       <c r="U94" t="n">
         <v>1</v>
       </c>
+      <c r="V94" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6649,6 +6933,9 @@
       <c r="U95" t="n">
         <v>1</v>
       </c>
+      <c r="V95" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6714,6 +7001,9 @@
       <c r="U96" t="n">
         <v>1</v>
       </c>
+      <c r="V96" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6779,6 +7069,9 @@
       <c r="U97" t="n">
         <v>0</v>
       </c>
+      <c r="V97" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6844,6 +7137,9 @@
       <c r="U98" t="n">
         <v>1</v>
       </c>
+      <c r="V98" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6909,6 +7205,9 @@
       <c r="U99" t="n">
         <v>1</v>
       </c>
+      <c r="V99" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6974,6 +7273,9 @@
       <c r="U100" t="n">
         <v>1</v>
       </c>
+      <c r="V100" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7039,6 +7341,9 @@
       <c r="U101" t="n">
         <v>1</v>
       </c>
+      <c r="V101" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7104,6 +7409,9 @@
       <c r="U102" t="n">
         <v>1</v>
       </c>
+      <c r="V102" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7169,6 +7477,9 @@
       <c r="U103" t="n">
         <v>1</v>
       </c>
+      <c r="V103" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7234,6 +7545,9 @@
       <c r="U104" t="n">
         <v>1</v>
       </c>
+      <c r="V104" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7299,6 +7613,9 @@
       <c r="U105" t="n">
         <v>1</v>
       </c>
+      <c r="V105" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7364,6 +7681,9 @@
       <c r="U106" t="n">
         <v>1</v>
       </c>
+      <c r="V106" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7429,6 +7749,9 @@
       <c r="U107" t="n">
         <v>1</v>
       </c>
+      <c r="V107" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7494,6 +7817,9 @@
       <c r="U108" t="n">
         <v>0</v>
       </c>
+      <c r="V108" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7559,6 +7885,9 @@
       <c r="U109" t="n">
         <v>0</v>
       </c>
+      <c r="V109" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7624,6 +7953,9 @@
       <c r="U110" t="n">
         <v>1</v>
       </c>
+      <c r="V110" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7689,6 +8021,9 @@
       <c r="U111" t="n">
         <v>1</v>
       </c>
+      <c r="V111" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7754,6 +8089,9 @@
       <c r="U112" t="n">
         <v>1</v>
       </c>
+      <c r="V112" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7819,6 +8157,9 @@
       <c r="U113" t="n">
         <v>0</v>
       </c>
+      <c r="V113" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7884,6 +8225,9 @@
       <c r="U114" t="n">
         <v>1</v>
       </c>
+      <c r="V114" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7949,6 +8293,9 @@
       <c r="U115" t="n">
         <v>1</v>
       </c>
+      <c r="V115" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8014,6 +8361,9 @@
       <c r="U116" t="n">
         <v>1</v>
       </c>
+      <c r="V116" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8079,6 +8429,9 @@
       <c r="U117" t="n">
         <v>1</v>
       </c>
+      <c r="V117" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8144,6 +8497,9 @@
       <c r="U118" t="n">
         <v>1</v>
       </c>
+      <c r="V118" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8209,6 +8565,9 @@
       <c r="U119" t="n">
         <v>0</v>
       </c>
+      <c r="V119" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8274,6 +8633,9 @@
       <c r="U120" t="n">
         <v>1</v>
       </c>
+      <c r="V120" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8339,6 +8701,9 @@
       <c r="U121" t="n">
         <v>1</v>
       </c>
+      <c r="V121" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8404,6 +8769,9 @@
       <c r="U122" t="n">
         <v>1</v>
       </c>
+      <c r="V122" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8469,6 +8837,9 @@
       <c r="U123" t="n">
         <v>1</v>
       </c>
+      <c r="V123" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8534,6 +8905,9 @@
       <c r="U124" t="n">
         <v>1</v>
       </c>
+      <c r="V124" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8599,6 +8973,9 @@
       <c r="U125" t="n">
         <v>1</v>
       </c>
+      <c r="V125" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -8664,6 +9041,9 @@
       <c r="U126" t="n">
         <v>1</v>
       </c>
+      <c r="V126" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8729,6 +9109,9 @@
       <c r="U127" t="n">
         <v>1</v>
       </c>
+      <c r="V127" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8794,6 +9177,9 @@
       <c r="U128" t="n">
         <v>1</v>
       </c>
+      <c r="V128" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8859,6 +9245,9 @@
       <c r="U129" t="n">
         <v>0</v>
       </c>
+      <c r="V129" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8924,6 +9313,9 @@
       <c r="U130" t="n">
         <v>0</v>
       </c>
+      <c r="V130" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8989,6 +9381,9 @@
       <c r="U131" t="n">
         <v>1</v>
       </c>
+      <c r="V131" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -9054,6 +9449,9 @@
       <c r="U132" t="n">
         <v>1</v>
       </c>
+      <c r="V132" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -9119,6 +9517,9 @@
       <c r="U133" t="n">
         <v>1</v>
       </c>
+      <c r="V133" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9184,6 +9585,9 @@
       <c r="U134" t="n">
         <v>1</v>
       </c>
+      <c r="V134" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -9249,6 +9653,9 @@
       <c r="U135" t="n">
         <v>1</v>
       </c>
+      <c r="V135" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9314,6 +9721,9 @@
       <c r="U136" t="n">
         <v>0</v>
       </c>
+      <c r="V136" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9379,6 +9789,9 @@
       <c r="U137" t="n">
         <v>0</v>
       </c>
+      <c r="V137" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9444,6 +9857,9 @@
       <c r="U138" t="n">
         <v>1</v>
       </c>
+      <c r="V138" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9509,6 +9925,9 @@
       <c r="U139" t="n">
         <v>0</v>
       </c>
+      <c r="V139" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9574,6 +9993,9 @@
       <c r="U140" t="n">
         <v>0</v>
       </c>
+      <c r="V140" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -9639,6 +10061,9 @@
       <c r="U141" t="n">
         <v>0</v>
       </c>
+      <c r="V141" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -9704,6 +10129,9 @@
       <c r="U142" t="n">
         <v>1</v>
       </c>
+      <c r="V142" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9769,6 +10197,9 @@
       <c r="U143" t="n">
         <v>1</v>
       </c>
+      <c r="V143" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9834,6 +10265,9 @@
       <c r="U144" t="n">
         <v>1</v>
       </c>
+      <c r="V144" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9899,6 +10333,9 @@
       <c r="U145" t="n">
         <v>1</v>
       </c>
+      <c r="V145" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9964,6 +10401,9 @@
       <c r="U146" t="n">
         <v>1</v>
       </c>
+      <c r="V146" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10029,6 +10469,9 @@
       <c r="U147" t="n">
         <v>1</v>
       </c>
+      <c r="V147" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -10094,6 +10537,9 @@
       <c r="U148" t="n">
         <v>1</v>
       </c>
+      <c r="V148" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10159,6 +10605,9 @@
       <c r="U149" t="n">
         <v>0</v>
       </c>
+      <c r="V149" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -10224,6 +10673,9 @@
       <c r="U150" t="n">
         <v>1</v>
       </c>
+      <c r="V150" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -10289,6 +10741,9 @@
       <c r="U151" t="n">
         <v>0</v>
       </c>
+      <c r="V151" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10354,6 +10809,9 @@
       <c r="U152" t="n">
         <v>1</v>
       </c>
+      <c r="V152" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10419,6 +10877,9 @@
       <c r="U153" t="n">
         <v>0</v>
       </c>
+      <c r="V153" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10484,6 +10945,9 @@
       <c r="U154" t="n">
         <v>0</v>
       </c>
+      <c r="V154" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -10549,6 +11013,9 @@
       <c r="U155" t="n">
         <v>1</v>
       </c>
+      <c r="V155" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -10614,6 +11081,9 @@
       <c r="U156" t="n">
         <v>1</v>
       </c>
+      <c r="V156" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -10679,6 +11149,9 @@
       <c r="U157" t="n">
         <v>1</v>
       </c>
+      <c r="V157" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -10744,6 +11217,9 @@
       <c r="U158" t="n">
         <v>1</v>
       </c>
+      <c r="V158" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -10809,6 +11285,9 @@
       <c r="U159" t="n">
         <v>1</v>
       </c>
+      <c r="V159" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10874,6 +11353,9 @@
       <c r="U160" t="n">
         <v>1</v>
       </c>
+      <c r="V160" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10939,6 +11421,9 @@
       <c r="U161" t="n">
         <v>1</v>
       </c>
+      <c r="V161" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -11004,6 +11489,9 @@
       <c r="U162" t="n">
         <v>0</v>
       </c>
+      <c r="V162" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -11069,6 +11557,9 @@
       <c r="U163" t="n">
         <v>0</v>
       </c>
+      <c r="V163" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -11134,6 +11625,9 @@
       <c r="U164" t="n">
         <v>1</v>
       </c>
+      <c r="V164" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -11199,6 +11693,9 @@
       <c r="U165" t="n">
         <v>1</v>
       </c>
+      <c r="V165" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -11264,6 +11761,9 @@
       <c r="U166" t="n">
         <v>1</v>
       </c>
+      <c r="V166" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -11329,6 +11829,9 @@
       <c r="U167" t="n">
         <v>0</v>
       </c>
+      <c r="V167" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11394,6 +11897,9 @@
       <c r="U168" t="n">
         <v>1</v>
       </c>
+      <c r="V168" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11459,6 +11965,9 @@
       <c r="U169" t="n">
         <v>0</v>
       </c>
+      <c r="V169" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -11524,6 +12033,9 @@
       <c r="U170" t="n">
         <v>1</v>
       </c>
+      <c r="V170" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -11589,6 +12101,9 @@
       <c r="U171" t="n">
         <v>1</v>
       </c>
+      <c r="V171" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -11654,6 +12169,9 @@
       <c r="U172" t="n">
         <v>1</v>
       </c>
+      <c r="V172" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -11719,6 +12237,9 @@
       <c r="U173" t="n">
         <v>0</v>
       </c>
+      <c r="V173" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -11784,6 +12305,9 @@
       <c r="U174" t="n">
         <v>1</v>
       </c>
+      <c r="V174" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -11849,6 +12373,9 @@
       <c r="U175" t="n">
         <v>0</v>
       </c>
+      <c r="V175" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -11914,6 +12441,9 @@
       <c r="U176" t="n">
         <v>1</v>
       </c>
+      <c r="V176" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11979,6 +12509,9 @@
       <c r="U177" t="n">
         <v>1</v>
       </c>
+      <c r="V177" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -12044,6 +12577,9 @@
       <c r="U178" t="n">
         <v>0</v>
       </c>
+      <c r="V178" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -12109,6 +12645,9 @@
       <c r="U179" t="n">
         <v>1</v>
       </c>
+      <c r="V179" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -12174,6 +12713,9 @@
       <c r="U180" t="n">
         <v>0</v>
       </c>
+      <c r="V180" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -12239,6 +12781,9 @@
       <c r="U181" t="n">
         <v>0</v>
       </c>
+      <c r="V181" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -12304,6 +12849,9 @@
       <c r="U182" t="n">
         <v>0</v>
       </c>
+      <c r="V182" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -12369,6 +12917,9 @@
       <c r="U183" t="n">
         <v>1</v>
       </c>
+      <c r="V183" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12434,6 +12985,9 @@
       <c r="U184" t="n">
         <v>0</v>
       </c>
+      <c r="V184" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -12499,6 +13053,9 @@
       <c r="U185" t="n">
         <v>1</v>
       </c>
+      <c r="V185" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -12564,6 +13121,9 @@
       <c r="U186" t="n">
         <v>1</v>
       </c>
+      <c r="V186" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -12629,6 +13189,9 @@
       <c r="U187" t="n">
         <v>0</v>
       </c>
+      <c r="V187" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -12694,6 +13257,9 @@
       <c r="U188" t="n">
         <v>1</v>
       </c>
+      <c r="V188" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -12759,6 +13325,9 @@
       <c r="U189" t="n">
         <v>1</v>
       </c>
+      <c r="V189" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -12824,6 +13393,9 @@
       <c r="U190" t="n">
         <v>1</v>
       </c>
+      <c r="V190" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -12889,6 +13461,9 @@
       <c r="U191" t="n">
         <v>1</v>
       </c>
+      <c r="V191" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -12954,6 +13529,9 @@
       <c r="U192" t="n">
         <v>0</v>
       </c>
+      <c r="V192" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -13019,6 +13597,9 @@
       <c r="U193" t="n">
         <v>0</v>
       </c>
+      <c r="V193" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -13084,6 +13665,9 @@
       <c r="U194" t="n">
         <v>1</v>
       </c>
+      <c r="V194" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -13149,6 +13733,9 @@
       <c r="U195" t="n">
         <v>1</v>
       </c>
+      <c r="V195" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -13214,6 +13801,9 @@
       <c r="U196" t="n">
         <v>0</v>
       </c>
+      <c r="V196" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -13279,6 +13869,9 @@
       <c r="U197" t="n">
         <v>1</v>
       </c>
+      <c r="V197" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -13344,6 +13937,9 @@
       <c r="U198" t="n">
         <v>1</v>
       </c>
+      <c r="V198" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -13409,6 +14005,9 @@
       <c r="U199" t="n">
         <v>1</v>
       </c>
+      <c r="V199" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -13474,6 +14073,9 @@
       <c r="U200" t="n">
         <v>0</v>
       </c>
+      <c r="V200" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -13539,6 +14141,9 @@
       <c r="U201" t="n">
         <v>1</v>
       </c>
+      <c r="V201" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -13604,6 +14209,9 @@
       <c r="U202" t="n">
         <v>1</v>
       </c>
+      <c r="V202" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -13669,6 +14277,9 @@
       <c r="U203" t="n">
         <v>0</v>
       </c>
+      <c r="V203" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -13734,6 +14345,9 @@
       <c r="U204" t="n">
         <v>1</v>
       </c>
+      <c r="V204" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -13799,6 +14413,9 @@
       <c r="U205" t="n">
         <v>1</v>
       </c>
+      <c r="V205" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -13864,6 +14481,9 @@
       <c r="U206" t="n">
         <v>1</v>
       </c>
+      <c r="V206" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -13929,6 +14549,9 @@
       <c r="U207" t="n">
         <v>1</v>
       </c>
+      <c r="V207" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -13994,6 +14617,9 @@
       <c r="U208" t="n">
         <v>1</v>
       </c>
+      <c r="V208" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -14059,6 +14685,9 @@
       <c r="U209" t="n">
         <v>1</v>
       </c>
+      <c r="V209" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -14124,6 +14753,9 @@
       <c r="U210" t="n">
         <v>0</v>
       </c>
+      <c r="V210" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -14189,6 +14821,9 @@
       <c r="U211" t="n">
         <v>0</v>
       </c>
+      <c r="V211" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -14254,6 +14889,9 @@
       <c r="U212" t="n">
         <v>0</v>
       </c>
+      <c r="V212" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -14319,6 +14957,9 @@
       <c r="U213" t="n">
         <v>1</v>
       </c>
+      <c r="V213" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -14384,6 +15025,9 @@
       <c r="U214" t="n">
         <v>1</v>
       </c>
+      <c r="V214" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -14449,6 +15093,9 @@
       <c r="U215" t="n">
         <v>1</v>
       </c>
+      <c r="V215" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -14514,6 +15161,9 @@
       <c r="U216" t="n">
         <v>1</v>
       </c>
+      <c r="V216" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -14579,6 +15229,9 @@
       <c r="U217" t="n">
         <v>0</v>
       </c>
+      <c r="V217" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -14644,6 +15297,9 @@
       <c r="U218" t="n">
         <v>1</v>
       </c>
+      <c r="V218" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -14709,6 +15365,9 @@
       <c r="U219" t="n">
         <v>0</v>
       </c>
+      <c r="V219" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -14774,6 +15433,9 @@
       <c r="U220" t="n">
         <v>1</v>
       </c>
+      <c r="V220" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -14839,6 +15501,9 @@
       <c r="U221" t="n">
         <v>0</v>
       </c>
+      <c r="V221" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -14904,6 +15569,9 @@
       <c r="U222" t="n">
         <v>1</v>
       </c>
+      <c r="V222" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -14969,6 +15637,9 @@
       <c r="U223" t="n">
         <v>1</v>
       </c>
+      <c r="V223" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -15034,6 +15705,9 @@
       <c r="U224" t="n">
         <v>1</v>
       </c>
+      <c r="V224" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -15099,6 +15773,9 @@
       <c r="U225" t="n">
         <v>1</v>
       </c>
+      <c r="V225" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -15164,6 +15841,9 @@
       <c r="U226" t="n">
         <v>0</v>
       </c>
+      <c r="V226" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -15229,6 +15909,9 @@
       <c r="U227" t="n">
         <v>0</v>
       </c>
+      <c r="V227" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -15294,6 +15977,9 @@
       <c r="U228" t="n">
         <v>1</v>
       </c>
+      <c r="V228" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -15359,6 +16045,9 @@
       <c r="U229" t="n">
         <v>1</v>
       </c>
+      <c r="V229" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -15424,6 +16113,9 @@
       <c r="U230" t="n">
         <v>1</v>
       </c>
+      <c r="V230" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -15489,6 +16181,9 @@
       <c r="U231" t="n">
         <v>1</v>
       </c>
+      <c r="V231" t="n">
+        <v>230</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -15554,6 +16249,9 @@
       <c r="U232" t="n">
         <v>1</v>
       </c>
+      <c r="V232" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -15619,6 +16317,9 @@
       <c r="U233" t="n">
         <v>1</v>
       </c>
+      <c r="V233" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -15684,6 +16385,9 @@
       <c r="U234" t="n">
         <v>1</v>
       </c>
+      <c r="V234" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -15749,6 +16453,9 @@
       <c r="U235" t="n">
         <v>1</v>
       </c>
+      <c r="V235" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -15814,6 +16521,9 @@
       <c r="U236" t="n">
         <v>0</v>
       </c>
+      <c r="V236" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -15879,6 +16589,9 @@
       <c r="U237" t="n">
         <v>1</v>
       </c>
+      <c r="V237" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -15944,6 +16657,9 @@
       <c r="U238" t="n">
         <v>1</v>
       </c>
+      <c r="V238" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -16009,6 +16725,9 @@
       <c r="U239" t="n">
         <v>1</v>
       </c>
+      <c r="V239" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -16074,6 +16793,9 @@
       <c r="U240" t="n">
         <v>1</v>
       </c>
+      <c r="V240" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -16139,6 +16861,9 @@
       <c r="U241" t="n">
         <v>0</v>
       </c>
+      <c r="V241" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -16204,6 +16929,9 @@
       <c r="U242" t="n">
         <v>1</v>
       </c>
+      <c r="V242" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -16269,6 +16997,9 @@
       <c r="U243" t="n">
         <v>1</v>
       </c>
+      <c r="V243" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -16334,6 +17065,9 @@
       <c r="U244" t="n">
         <v>1</v>
       </c>
+      <c r="V244" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -16399,6 +17133,9 @@
       <c r="U245" t="n">
         <v>0</v>
       </c>
+      <c r="V245" t="n">
+        <v>244</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -16464,6 +17201,9 @@
       <c r="U246" t="n">
         <v>1</v>
       </c>
+      <c r="V246" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -16529,6 +17269,9 @@
       <c r="U247" t="n">
         <v>1</v>
       </c>
+      <c r="V247" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -16594,6 +17337,9 @@
       <c r="U248" t="n">
         <v>1</v>
       </c>
+      <c r="V248" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -16659,6 +17405,9 @@
       <c r="U249" t="n">
         <v>1</v>
       </c>
+      <c r="V249" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -16724,6 +17473,9 @@
       <c r="U250" t="n">
         <v>0</v>
       </c>
+      <c r="V250" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -16789,6 +17541,9 @@
       <c r="U251" t="n">
         <v>0</v>
       </c>
+      <c r="V251" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -16854,6 +17609,9 @@
       <c r="U252" t="n">
         <v>1</v>
       </c>
+      <c r="V252" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -16919,6 +17677,9 @@
       <c r="U253" t="n">
         <v>1</v>
       </c>
+      <c r="V253" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -16984,6 +17745,9 @@
       <c r="U254" t="n">
         <v>0</v>
       </c>
+      <c r="V254" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -17049,6 +17813,9 @@
       <c r="U255" t="n">
         <v>1</v>
       </c>
+      <c r="V255" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -17114,6 +17881,9 @@
       <c r="U256" t="n">
         <v>0</v>
       </c>
+      <c r="V256" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -17179,6 +17949,9 @@
       <c r="U257" t="n">
         <v>0</v>
       </c>
+      <c r="V257" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -17244,6 +18017,9 @@
       <c r="U258" t="n">
         <v>0</v>
       </c>
+      <c r="V258" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -17309,6 +18085,9 @@
       <c r="U259" t="n">
         <v>0</v>
       </c>
+      <c r="V259" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -17374,6 +18153,9 @@
       <c r="U260" t="n">
         <v>1</v>
       </c>
+      <c r="V260" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -17439,6 +18221,9 @@
       <c r="U261" t="n">
         <v>1</v>
       </c>
+      <c r="V261" t="n">
+        <v>260</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -17504,6 +18289,9 @@
       <c r="U262" t="n">
         <v>0</v>
       </c>
+      <c r="V262" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -17569,6 +18357,9 @@
       <c r="U263" t="n">
         <v>1</v>
       </c>
+      <c r="V263" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -17634,6 +18425,9 @@
       <c r="U264" t="n">
         <v>1</v>
       </c>
+      <c r="V264" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -17699,6 +18493,9 @@
       <c r="U265" t="n">
         <v>1</v>
       </c>
+      <c r="V265" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -17764,6 +18561,9 @@
       <c r="U266" t="n">
         <v>1</v>
       </c>
+      <c r="V266" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -17829,6 +18629,9 @@
       <c r="U267" t="n">
         <v>1</v>
       </c>
+      <c r="V267" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -17894,6 +18697,9 @@
       <c r="U268" t="n">
         <v>0</v>
       </c>
+      <c r="V268" t="n">
+        <v>267</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -17959,6 +18765,9 @@
       <c r="U269" t="n">
         <v>1</v>
       </c>
+      <c r="V269" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -18024,6 +18833,9 @@
       <c r="U270" t="n">
         <v>1</v>
       </c>
+      <c r="V270" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -18089,6 +18901,9 @@
       <c r="U271" t="n">
         <v>1</v>
       </c>
+      <c r="V271" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -18154,6 +18969,9 @@
       <c r="U272" t="n">
         <v>1</v>
       </c>
+      <c r="V272" t="n">
+        <v>271</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -18219,6 +19037,9 @@
       <c r="U273" t="n">
         <v>1</v>
       </c>
+      <c r="V273" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -18284,6 +19105,9 @@
       <c r="U274" t="n">
         <v>1</v>
       </c>
+      <c r="V274" t="n">
+        <v>273</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -18349,6 +19173,9 @@
       <c r="U275" t="n">
         <v>1</v>
       </c>
+      <c r="V275" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -18414,6 +19241,9 @@
       <c r="U276" t="n">
         <v>1</v>
       </c>
+      <c r="V276" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -18479,6 +19309,9 @@
       <c r="U277" t="n">
         <v>1</v>
       </c>
+      <c r="V277" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -18544,6 +19377,9 @@
       <c r="U278" t="n">
         <v>1</v>
       </c>
+      <c r="V278" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -18609,6 +19445,9 @@
       <c r="U279" t="n">
         <v>1</v>
       </c>
+      <c r="V279" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -18674,6 +19513,9 @@
       <c r="U280" t="n">
         <v>0</v>
       </c>
+      <c r="V280" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -18739,6 +19581,9 @@
       <c r="U281" t="n">
         <v>1</v>
       </c>
+      <c r="V281" t="n">
+        <v>280</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -18804,6 +19649,9 @@
       <c r="U282" t="n">
         <v>1</v>
       </c>
+      <c r="V282" t="n">
+        <v>281</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -18869,6 +19717,9 @@
       <c r="U283" t="n">
         <v>1</v>
       </c>
+      <c r="V283" t="n">
+        <v>282</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -18934,6 +19785,9 @@
       <c r="U284" t="n">
         <v>0</v>
       </c>
+      <c r="V284" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -18999,6 +19853,9 @@
       <c r="U285" t="n">
         <v>1</v>
       </c>
+      <c r="V285" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -19064,6 +19921,9 @@
       <c r="U286" t="n">
         <v>0</v>
       </c>
+      <c r="V286" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -19129,6 +19989,9 @@
       <c r="U287" t="n">
         <v>1</v>
       </c>
+      <c r="V287" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -19194,6 +20057,9 @@
       <c r="U288" t="n">
         <v>1</v>
       </c>
+      <c r="V288" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -19259,6 +20125,9 @@
       <c r="U289" t="n">
         <v>1</v>
       </c>
+      <c r="V289" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -19324,6 +20193,9 @@
       <c r="U290" t="n">
         <v>1</v>
       </c>
+      <c r="V290" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -19389,6 +20261,9 @@
       <c r="U291" t="n">
         <v>0</v>
       </c>
+      <c r="V291" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -19454,6 +20329,9 @@
       <c r="U292" t="n">
         <v>1</v>
       </c>
+      <c r="V292" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -19519,6 +20397,9 @@
       <c r="U293" t="n">
         <v>0</v>
       </c>
+      <c r="V293" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -19584,6 +20465,9 @@
       <c r="U294" t="n">
         <v>1</v>
       </c>
+      <c r="V294" t="n">
+        <v>293</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -19649,6 +20533,9 @@
       <c r="U295" t="n">
         <v>1</v>
       </c>
+      <c r="V295" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -19714,6 +20601,9 @@
       <c r="U296" t="n">
         <v>1</v>
       </c>
+      <c r="V296" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -19779,6 +20669,9 @@
       <c r="U297" t="n">
         <v>1</v>
       </c>
+      <c r="V297" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -19844,6 +20737,9 @@
       <c r="U298" t="n">
         <v>0</v>
       </c>
+      <c r="V298" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -19909,6 +20805,9 @@
       <c r="U299" t="n">
         <v>0</v>
       </c>
+      <c r="V299" t="n">
+        <v>298</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -19974,6 +20873,9 @@
       <c r="U300" t="n">
         <v>0</v>
       </c>
+      <c r="V300" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -20039,6 +20941,9 @@
       <c r="U301" t="n">
         <v>1</v>
       </c>
+      <c r="V301" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -20104,6 +21009,9 @@
       <c r="U302" t="n">
         <v>1</v>
       </c>
+      <c r="V302" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -20169,6 +21077,9 @@
       <c r="U303" t="n">
         <v>1</v>
       </c>
+      <c r="V303" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -20234,6 +21145,9 @@
       <c r="U304" t="n">
         <v>1</v>
       </c>
+      <c r="V304" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -20299,6 +21213,9 @@
       <c r="U305" t="n">
         <v>0</v>
       </c>
+      <c r="V305" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -20364,6 +21281,9 @@
       <c r="U306" t="n">
         <v>1</v>
       </c>
+      <c r="V306" t="n">
+        <v>305</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -20429,6 +21349,9 @@
       <c r="U307" t="n">
         <v>0</v>
       </c>
+      <c r="V307" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -20494,6 +21417,9 @@
       <c r="U308" t="n">
         <v>0</v>
       </c>
+      <c r="V308" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -20559,6 +21485,9 @@
       <c r="U309" t="n">
         <v>1</v>
       </c>
+      <c r="V309" t="n">
+        <v>308</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -20624,6 +21553,9 @@
       <c r="U310" t="n">
         <v>1</v>
       </c>
+      <c r="V310" t="n">
+        <v>309</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -20689,6 +21621,9 @@
       <c r="U311" t="n">
         <v>1</v>
       </c>
+      <c r="V311" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -20754,6 +21689,9 @@
       <c r="U312" t="n">
         <v>1</v>
       </c>
+      <c r="V312" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -20819,6 +21757,9 @@
       <c r="U313" t="n">
         <v>1</v>
       </c>
+      <c r="V313" t="n">
+        <v>312</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -20884,6 +21825,9 @@
       <c r="U314" t="n">
         <v>0</v>
       </c>
+      <c r="V314" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -20949,6 +21893,9 @@
       <c r="U315" t="n">
         <v>1</v>
       </c>
+      <c r="V315" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -21014,6 +21961,9 @@
       <c r="U316" t="n">
         <v>1</v>
       </c>
+      <c r="V316" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -21079,6 +22029,9 @@
       <c r="U317" t="n">
         <v>1</v>
       </c>
+      <c r="V317" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -21144,6 +22097,9 @@
       <c r="U318" t="n">
         <v>1</v>
       </c>
+      <c r="V318" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -21209,6 +22165,9 @@
       <c r="U319" t="n">
         <v>0</v>
       </c>
+      <c r="V319" t="n">
+        <v>318</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -21274,6 +22233,9 @@
       <c r="U320" t="n">
         <v>1</v>
       </c>
+      <c r="V320" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -21339,6 +22301,9 @@
       <c r="U321" t="n">
         <v>1</v>
       </c>
+      <c r="V321" t="n">
+        <v>320</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -21404,6 +22369,9 @@
       <c r="U322" t="n">
         <v>1</v>
       </c>
+      <c r="V322" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -21469,6 +22437,9 @@
       <c r="U323" t="n">
         <v>1</v>
       </c>
+      <c r="V323" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -21534,6 +22505,9 @@
       <c r="U324" t="n">
         <v>1</v>
       </c>
+      <c r="V324" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -21599,6 +22573,9 @@
       <c r="U325" t="n">
         <v>0</v>
       </c>
+      <c r="V325" t="n">
+        <v>324</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -21664,6 +22641,9 @@
       <c r="U326" t="n">
         <v>1</v>
       </c>
+      <c r="V326" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -21729,6 +22709,9 @@
       <c r="U327" t="n">
         <v>1</v>
       </c>
+      <c r="V327" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -21794,6 +22777,9 @@
       <c r="U328" t="n">
         <v>0</v>
       </c>
+      <c r="V328" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -21859,6 +22845,9 @@
       <c r="U329" t="n">
         <v>1</v>
       </c>
+      <c r="V329" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -21924,6 +22913,9 @@
       <c r="U330" t="n">
         <v>1</v>
       </c>
+      <c r="V330" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -21989,6 +22981,9 @@
       <c r="U331" t="n">
         <v>1</v>
       </c>
+      <c r="V331" t="n">
+        <v>330</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -22054,6 +23049,9 @@
       <c r="U332" t="n">
         <v>1</v>
       </c>
+      <c r="V332" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -22119,6 +23117,9 @@
       <c r="U333" t="n">
         <v>1</v>
       </c>
+      <c r="V333" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -22184,6 +23185,9 @@
       <c r="U334" t="n">
         <v>1</v>
       </c>
+      <c r="V334" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -22249,6 +23253,9 @@
       <c r="U335" t="n">
         <v>1</v>
       </c>
+      <c r="V335" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -22314,6 +23321,9 @@
       <c r="U336" t="n">
         <v>1</v>
       </c>
+      <c r="V336" t="n">
+        <v>335</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -22379,6 +23389,9 @@
       <c r="U337" t="n">
         <v>1</v>
       </c>
+      <c r="V337" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -22444,6 +23457,9 @@
       <c r="U338" t="n">
         <v>0</v>
       </c>
+      <c r="V338" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -22509,6 +23525,9 @@
       <c r="U339" t="n">
         <v>1</v>
       </c>
+      <c r="V339" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -22574,6 +23593,9 @@
       <c r="U340" t="n">
         <v>0</v>
       </c>
+      <c r="V340" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -22639,6 +23661,9 @@
       <c r="U341" t="n">
         <v>0</v>
       </c>
+      <c r="V341" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -22704,6 +23729,9 @@
       <c r="U342" t="n">
         <v>1</v>
       </c>
+      <c r="V342" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -22769,6 +23797,9 @@
       <c r="U343" t="n">
         <v>1</v>
       </c>
+      <c r="V343" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -22834,6 +23865,9 @@
       <c r="U344" t="n">
         <v>1</v>
       </c>
+      <c r="V344" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -22899,6 +23933,9 @@
       <c r="U345" t="n">
         <v>1</v>
       </c>
+      <c r="V345" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -22964,6 +24001,9 @@
       <c r="U346" t="n">
         <v>0</v>
       </c>
+      <c r="V346" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -23029,6 +24069,9 @@
       <c r="U347" t="n">
         <v>1</v>
       </c>
+      <c r="V347" t="n">
+        <v>346</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -23094,6 +24137,9 @@
       <c r="U348" t="n">
         <v>1</v>
       </c>
+      <c r="V348" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -23159,6 +24205,9 @@
       <c r="U349" t="n">
         <v>1</v>
       </c>
+      <c r="V349" t="n">
+        <v>348</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -23224,6 +24273,9 @@
       <c r="U350" t="n">
         <v>1</v>
       </c>
+      <c r="V350" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -23289,6 +24341,9 @@
       <c r="U351" t="n">
         <v>0</v>
       </c>
+      <c r="V351" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -23354,6 +24409,9 @@
       <c r="U352" t="n">
         <v>1</v>
       </c>
+      <c r="V352" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -23419,6 +24477,9 @@
       <c r="U353" t="n">
         <v>0</v>
       </c>
+      <c r="V353" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -23484,6 +24545,9 @@
       <c r="U354" t="n">
         <v>1</v>
       </c>
+      <c r="V354" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -23549,6 +24613,9 @@
       <c r="U355" t="n">
         <v>1</v>
       </c>
+      <c r="V355" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -23614,6 +24681,9 @@
       <c r="U356" t="n">
         <v>1</v>
       </c>
+      <c r="V356" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -23679,6 +24749,9 @@
       <c r="U357" t="n">
         <v>0</v>
       </c>
+      <c r="V357" t="n">
+        <v>356</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -23744,6 +24817,9 @@
       <c r="U358" t="n">
         <v>0</v>
       </c>
+      <c r="V358" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -23809,6 +24885,9 @@
       <c r="U359" t="n">
         <v>1</v>
       </c>
+      <c r="V359" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -23874,6 +24953,9 @@
       <c r="U360" t="n">
         <v>0</v>
       </c>
+      <c r="V360" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -23939,6 +25021,9 @@
       <c r="U361" t="n">
         <v>1</v>
       </c>
+      <c r="V361" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -24004,6 +25089,9 @@
       <c r="U362" t="n">
         <v>1</v>
       </c>
+      <c r="V362" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -24069,6 +25157,9 @@
       <c r="U363" t="n">
         <v>1</v>
       </c>
+      <c r="V363" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -24134,6 +25225,9 @@
       <c r="U364" t="n">
         <v>1</v>
       </c>
+      <c r="V364" t="n">
+        <v>363</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -24199,6 +25293,9 @@
       <c r="U365" t="n">
         <v>0</v>
       </c>
+      <c r="V365" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -24264,6 +25361,9 @@
       <c r="U366" t="n">
         <v>0</v>
       </c>
+      <c r="V366" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -24329,6 +25429,9 @@
       <c r="U367" t="n">
         <v>0</v>
       </c>
+      <c r="V367" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -24394,6 +25497,9 @@
       <c r="U368" t="n">
         <v>1</v>
       </c>
+      <c r="V368" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -24459,6 +25565,9 @@
       <c r="U369" t="n">
         <v>0</v>
       </c>
+      <c r="V369" t="n">
+        <v>368</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -24524,6 +25633,9 @@
       <c r="U370" t="n">
         <v>1</v>
       </c>
+      <c r="V370" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -24589,6 +25701,9 @@
       <c r="U371" t="n">
         <v>1</v>
       </c>
+      <c r="V371" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -24654,6 +25769,9 @@
       <c r="U372" t="n">
         <v>1</v>
       </c>
+      <c r="V372" t="n">
+        <v>371</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -24719,6 +25837,9 @@
       <c r="U373" t="n">
         <v>0</v>
       </c>
+      <c r="V373" t="n">
+        <v>372</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -24784,6 +25905,9 @@
       <c r="U374" t="n">
         <v>1</v>
       </c>
+      <c r="V374" t="n">
+        <v>373</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -24849,6 +25973,9 @@
       <c r="U375" t="n">
         <v>1</v>
       </c>
+      <c r="V375" t="n">
+        <v>374</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -24914,6 +26041,9 @@
       <c r="U376" t="n">
         <v>1</v>
       </c>
+      <c r="V376" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -24979,6 +26109,9 @@
       <c r="U377" t="n">
         <v>1</v>
       </c>
+      <c r="V377" t="n">
+        <v>376</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -25044,6 +26177,9 @@
       <c r="U378" t="n">
         <v>0</v>
       </c>
+      <c r="V378" t="n">
+        <v>377</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -25109,6 +26245,9 @@
       <c r="U379" t="n">
         <v>1</v>
       </c>
+      <c r="V379" t="n">
+        <v>378</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -25174,6 +26313,9 @@
       <c r="U380" t="n">
         <v>1</v>
       </c>
+      <c r="V380" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -25239,6 +26381,9 @@
       <c r="U381" t="n">
         <v>1</v>
       </c>
+      <c r="V381" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -25304,6 +26449,9 @@
       <c r="U382" t="n">
         <v>1</v>
       </c>
+      <c r="V382" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -25369,6 +26517,9 @@
       <c r="U383" t="n">
         <v>1</v>
       </c>
+      <c r="V383" t="n">
+        <v>382</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -25434,6 +26585,9 @@
       <c r="U384" t="n">
         <v>0</v>
       </c>
+      <c r="V384" t="n">
+        <v>383</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -25499,6 +26653,9 @@
       <c r="U385" t="n">
         <v>1</v>
       </c>
+      <c r="V385" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -25564,6 +26721,9 @@
       <c r="U386" t="n">
         <v>1</v>
       </c>
+      <c r="V386" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -25629,6 +26789,9 @@
       <c r="U387" t="n">
         <v>0</v>
       </c>
+      <c r="V387" t="n">
+        <v>386</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -25694,6 +26857,9 @@
       <c r="U388" t="n">
         <v>1</v>
       </c>
+      <c r="V388" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -25759,6 +26925,9 @@
       <c r="U389" t="n">
         <v>1</v>
       </c>
+      <c r="V389" t="n">
+        <v>388</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -25824,6 +26993,9 @@
       <c r="U390" t="n">
         <v>1</v>
       </c>
+      <c r="V390" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -25889,6 +27061,9 @@
       <c r="U391" t="n">
         <v>1</v>
       </c>
+      <c r="V391" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -25954,6 +27129,9 @@
       <c r="U392" t="n">
         <v>1</v>
       </c>
+      <c r="V392" t="n">
+        <v>391</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -26019,6 +27197,9 @@
       <c r="U393" t="n">
         <v>1</v>
       </c>
+      <c r="V393" t="n">
+        <v>392</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -26084,6 +27265,9 @@
       <c r="U394" t="n">
         <v>1</v>
       </c>
+      <c r="V394" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -26149,6 +27333,9 @@
       <c r="U395" t="n">
         <v>1</v>
       </c>
+      <c r="V395" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -26214,6 +27401,9 @@
       <c r="U396" t="n">
         <v>0</v>
       </c>
+      <c r="V396" t="n">
+        <v>395</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -26279,6 +27469,9 @@
       <c r="U397" t="n">
         <v>1</v>
       </c>
+      <c r="V397" t="n">
+        <v>396</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -26344,6 +27537,9 @@
       <c r="U398" t="n">
         <v>1</v>
       </c>
+      <c r="V398" t="n">
+        <v>397</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -26409,6 +27605,9 @@
       <c r="U399" t="n">
         <v>0</v>
       </c>
+      <c r="V399" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -26474,6 +27673,9 @@
       <c r="U400" t="n">
         <v>0</v>
       </c>
+      <c r="V400" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -26539,6 +27741,9 @@
       <c r="U401" t="n">
         <v>0</v>
       </c>
+      <c r="V401" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -26604,6 +27809,9 @@
       <c r="U402" t="n">
         <v>1</v>
       </c>
+      <c r="V402" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -26669,6 +27877,9 @@
       <c r="U403" t="n">
         <v>1</v>
       </c>
+      <c r="V403" t="n">
+        <v>402</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -26734,6 +27945,9 @@
       <c r="U404" t="n">
         <v>0</v>
       </c>
+      <c r="V404" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -26799,6 +28013,9 @@
       <c r="U405" t="n">
         <v>1</v>
       </c>
+      <c r="V405" t="n">
+        <v>404</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -26864,6 +28081,9 @@
       <c r="U406" t="n">
         <v>1</v>
       </c>
+      <c r="V406" t="n">
+        <v>405</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -26929,6 +28149,9 @@
       <c r="U407" t="n">
         <v>1</v>
       </c>
+      <c r="V407" t="n">
+        <v>406</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -26994,6 +28217,9 @@
       <c r="U408" t="n">
         <v>0</v>
       </c>
+      <c r="V408" t="n">
+        <v>407</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -27059,6 +28285,9 @@
       <c r="U409" t="n">
         <v>0</v>
       </c>
+      <c r="V409" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -27124,6 +28353,9 @@
       <c r="U410" t="n">
         <v>0</v>
       </c>
+      <c r="V410" t="n">
+        <v>409</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -27189,6 +28421,9 @@
       <c r="U411" t="n">
         <v>1</v>
       </c>
+      <c r="V411" t="n">
+        <v>410</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -27254,6 +28489,9 @@
       <c r="U412" t="n">
         <v>0</v>
       </c>
+      <c r="V412" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -27319,6 +28557,9 @@
       <c r="U413" t="n">
         <v>1</v>
       </c>
+      <c r="V413" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -27384,6 +28625,9 @@
       <c r="U414" t="n">
         <v>0</v>
       </c>
+      <c r="V414" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -27449,6 +28693,9 @@
       <c r="U415" t="n">
         <v>1</v>
       </c>
+      <c r="V415" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -27514,6 +28761,9 @@
       <c r="U416" t="n">
         <v>0</v>
       </c>
+      <c r="V416" t="n">
+        <v>415</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -27579,6 +28829,9 @@
       <c r="U417" t="n">
         <v>0</v>
       </c>
+      <c r="V417" t="n">
+        <v>416</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -27644,6 +28897,9 @@
       <c r="U418" t="n">
         <v>1</v>
       </c>
+      <c r="V418" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -27709,6 +28965,9 @@
       <c r="U419" t="n">
         <v>1</v>
       </c>
+      <c r="V419" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -27774,6 +29033,9 @@
       <c r="U420" t="n">
         <v>1</v>
       </c>
+      <c r="V420" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -27839,6 +29101,9 @@
       <c r="U421" t="n">
         <v>0</v>
       </c>
+      <c r="V421" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -27904,6 +29169,9 @@
       <c r="U422" t="n">
         <v>1</v>
       </c>
+      <c r="V422" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -27969,6 +29237,9 @@
       <c r="U423" t="n">
         <v>0</v>
       </c>
+      <c r="V423" t="n">
+        <v>422</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -28034,6 +29305,9 @@
       <c r="U424" t="n">
         <v>1</v>
       </c>
+      <c r="V424" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -28099,6 +29373,9 @@
       <c r="U425" t="n">
         <v>1</v>
       </c>
+      <c r="V425" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -28164,6 +29441,9 @@
       <c r="U426" t="n">
         <v>0</v>
       </c>
+      <c r="V426" t="n">
+        <v>425</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -28229,6 +29509,9 @@
       <c r="U427" t="n">
         <v>1</v>
       </c>
+      <c r="V427" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -28294,6 +29577,9 @@
       <c r="U428" t="n">
         <v>1</v>
       </c>
+      <c r="V428" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -28359,6 +29645,9 @@
       <c r="U429" t="n">
         <v>1</v>
       </c>
+      <c r="V429" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -28424,6 +29713,9 @@
       <c r="U430" t="n">
         <v>1</v>
       </c>
+      <c r="V430" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -28489,6 +29781,9 @@
       <c r="U431" t="n">
         <v>0</v>
       </c>
+      <c r="V431" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -28554,6 +29849,9 @@
       <c r="U432" t="n">
         <v>1</v>
       </c>
+      <c r="V432" t="n">
+        <v>431</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -28619,6 +29917,9 @@
       <c r="U433" t="n">
         <v>1</v>
       </c>
+      <c r="V433" t="n">
+        <v>432</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -28684,6 +29985,9 @@
       <c r="U434" t="n">
         <v>1</v>
       </c>
+      <c r="V434" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -28749,6 +30053,9 @@
       <c r="U435" t="n">
         <v>1</v>
       </c>
+      <c r="V435" t="n">
+        <v>434</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -28814,6 +30121,9 @@
       <c r="U436" t="n">
         <v>1</v>
       </c>
+      <c r="V436" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -28879,6 +30189,9 @@
       <c r="U437" t="n">
         <v>0</v>
       </c>
+      <c r="V437" t="n">
+        <v>436</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -28944,6 +30257,9 @@
       <c r="U438" t="n">
         <v>1</v>
       </c>
+      <c r="V438" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -29009,6 +30325,9 @@
       <c r="U439" t="n">
         <v>1</v>
       </c>
+      <c r="V439" t="n">
+        <v>438</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -29074,6 +30393,9 @@
       <c r="U440" t="n">
         <v>1</v>
       </c>
+      <c r="V440" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -29139,6 +30461,9 @@
       <c r="U441" t="n">
         <v>1</v>
       </c>
+      <c r="V441" t="n">
+        <v>440</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -29204,6 +30529,9 @@
       <c r="U442" t="n">
         <v>1</v>
       </c>
+      <c r="V442" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -29269,6 +30597,9 @@
       <c r="U443" t="n">
         <v>1</v>
       </c>
+      <c r="V443" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -29334,6 +30665,9 @@
       <c r="U444" t="n">
         <v>1</v>
       </c>
+      <c r="V444" t="n">
+        <v>443</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -29399,6 +30733,9 @@
       <c r="U445" t="n">
         <v>1</v>
       </c>
+      <c r="V445" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -29464,6 +30801,9 @@
       <c r="U446" t="n">
         <v>0</v>
       </c>
+      <c r="V446" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -29529,6 +30869,9 @@
       <c r="U447" t="n">
         <v>0</v>
       </c>
+      <c r="V447" t="n">
+        <v>446</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -29594,6 +30937,9 @@
       <c r="U448" t="n">
         <v>0</v>
       </c>
+      <c r="V448" t="n">
+        <v>447</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -29659,6 +31005,9 @@
       <c r="U449" t="n">
         <v>0</v>
       </c>
+      <c r="V449" t="n">
+        <v>448</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -29724,6 +31073,9 @@
       <c r="U450" t="n">
         <v>1</v>
       </c>
+      <c r="V450" t="n">
+        <v>449</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -29789,6 +31141,9 @@
       <c r="U451" t="n">
         <v>0</v>
       </c>
+      <c r="V451" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -29854,6 +31209,9 @@
       <c r="U452" t="n">
         <v>1</v>
       </c>
+      <c r="V452" t="n">
+        <v>451</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -29919,6 +31277,9 @@
       <c r="U453" t="n">
         <v>1</v>
       </c>
+      <c r="V453" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -29984,6 +31345,9 @@
       <c r="U454" t="n">
         <v>1</v>
       </c>
+      <c r="V454" t="n">
+        <v>453</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -30049,6 +31413,9 @@
       <c r="U455" t="n">
         <v>1</v>
       </c>
+      <c r="V455" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -30114,6 +31481,9 @@
       <c r="U456" t="n">
         <v>0</v>
       </c>
+      <c r="V456" t="n">
+        <v>455</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -30179,6 +31549,9 @@
       <c r="U457" t="n">
         <v>1</v>
       </c>
+      <c r="V457" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -30244,6 +31617,9 @@
       <c r="U458" t="n">
         <v>0</v>
       </c>
+      <c r="V458" t="n">
+        <v>457</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -30309,6 +31685,9 @@
       <c r="U459" t="n">
         <v>1</v>
       </c>
+      <c r="V459" t="n">
+        <v>458</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -30374,6 +31753,9 @@
       <c r="U460" t="n">
         <v>1</v>
       </c>
+      <c r="V460" t="n">
+        <v>459</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -30439,6 +31821,9 @@
       <c r="U461" t="n">
         <v>1</v>
       </c>
+      <c r="V461" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -30504,6 +31889,9 @@
       <c r="U462" t="n">
         <v>1</v>
       </c>
+      <c r="V462" t="n">
+        <v>461</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -30569,6 +31957,9 @@
       <c r="U463" t="n">
         <v>0</v>
       </c>
+      <c r="V463" t="n">
+        <v>462</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -30634,6 +32025,9 @@
       <c r="U464" t="n">
         <v>1</v>
       </c>
+      <c r="V464" t="n">
+        <v>463</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -30699,6 +32093,9 @@
       <c r="U465" t="n">
         <v>0</v>
       </c>
+      <c r="V465" t="n">
+        <v>464</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -30764,6 +32161,9 @@
       <c r="U466" t="n">
         <v>1</v>
       </c>
+      <c r="V466" t="n">
+        <v>465</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -30829,6 +32229,9 @@
       <c r="U467" t="n">
         <v>1</v>
       </c>
+      <c r="V467" t="n">
+        <v>466</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -30894,6 +32297,9 @@
       <c r="U468" t="n">
         <v>0</v>
       </c>
+      <c r="V468" t="n">
+        <v>467</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -30959,6 +32365,9 @@
       <c r="U469" t="n">
         <v>1</v>
       </c>
+      <c r="V469" t="n">
+        <v>468</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -31024,6 +32433,9 @@
       <c r="U470" t="n">
         <v>0</v>
       </c>
+      <c r="V470" t="n">
+        <v>469</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -31089,6 +32501,9 @@
       <c r="U471" t="n">
         <v>1</v>
       </c>
+      <c r="V471" t="n">
+        <v>470</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -31154,6 +32569,9 @@
       <c r="U472" t="n">
         <v>1</v>
       </c>
+      <c r="V472" t="n">
+        <v>471</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -31219,6 +32637,9 @@
       <c r="U473" t="n">
         <v>1</v>
       </c>
+      <c r="V473" t="n">
+        <v>472</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -31284,6 +32705,9 @@
       <c r="U474" t="n">
         <v>1</v>
       </c>
+      <c r="V474" t="n">
+        <v>473</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -31349,6 +32773,9 @@
       <c r="U475" t="n">
         <v>1</v>
       </c>
+      <c r="V475" t="n">
+        <v>474</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -31414,6 +32841,9 @@
       <c r="U476" t="n">
         <v>0</v>
       </c>
+      <c r="V476" t="n">
+        <v>475</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -31479,6 +32909,9 @@
       <c r="U477" t="n">
         <v>1</v>
       </c>
+      <c r="V477" t="n">
+        <v>476</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -31544,6 +32977,9 @@
       <c r="U478" t="n">
         <v>0</v>
       </c>
+      <c r="V478" t="n">
+        <v>477</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -31609,6 +33045,9 @@
       <c r="U479" t="n">
         <v>1</v>
       </c>
+      <c r="V479" t="n">
+        <v>478</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -31674,6 +33113,9 @@
       <c r="U480" t="n">
         <v>1</v>
       </c>
+      <c r="V480" t="n">
+        <v>479</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -31739,6 +33181,9 @@
       <c r="U481" t="n">
         <v>1</v>
       </c>
+      <c r="V481" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -31804,6 +33249,9 @@
       <c r="U482" t="n">
         <v>1</v>
       </c>
+      <c r="V482" t="n">
+        <v>481</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -31869,6 +33317,9 @@
       <c r="U483" t="n">
         <v>1</v>
       </c>
+      <c r="V483" t="n">
+        <v>482</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -31934,6 +33385,9 @@
       <c r="U484" t="n">
         <v>1</v>
       </c>
+      <c r="V484" t="n">
+        <v>483</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -31999,6 +33453,9 @@
       <c r="U485" t="n">
         <v>0</v>
       </c>
+      <c r="V485" t="n">
+        <v>484</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -32064,6 +33521,9 @@
       <c r="U486" t="n">
         <v>0</v>
       </c>
+      <c r="V486" t="n">
+        <v>485</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -32129,6 +33589,9 @@
       <c r="U487" t="n">
         <v>1</v>
       </c>
+      <c r="V487" t="n">
+        <v>486</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -32194,6 +33657,9 @@
       <c r="U488" t="n">
         <v>0</v>
       </c>
+      <c r="V488" t="n">
+        <v>487</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -32259,6 +33725,9 @@
       <c r="U489" t="n">
         <v>1</v>
       </c>
+      <c r="V489" t="n">
+        <v>488</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -32324,6 +33793,9 @@
       <c r="U490" t="n">
         <v>1</v>
       </c>
+      <c r="V490" t="n">
+        <v>489</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -32389,6 +33861,9 @@
       <c r="U491" t="n">
         <v>1</v>
       </c>
+      <c r="V491" t="n">
+        <v>490</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -32454,6 +33929,9 @@
       <c r="U492" t="n">
         <v>1</v>
       </c>
+      <c r="V492" t="n">
+        <v>491</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -32519,6 +33997,9 @@
       <c r="U493" t="n">
         <v>0</v>
       </c>
+      <c r="V493" t="n">
+        <v>492</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -32584,6 +34065,9 @@
       <c r="U494" t="n">
         <v>1</v>
       </c>
+      <c r="V494" t="n">
+        <v>493</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -32649,6 +34133,9 @@
       <c r="U495" t="n">
         <v>1</v>
       </c>
+      <c r="V495" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -32714,6 +34201,9 @@
       <c r="U496" t="n">
         <v>1</v>
       </c>
+      <c r="V496" t="n">
+        <v>495</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -32779,6 +34269,9 @@
       <c r="U497" t="n">
         <v>1</v>
       </c>
+      <c r="V497" t="n">
+        <v>496</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -32844,6 +34337,9 @@
       <c r="U498" t="n">
         <v>0</v>
       </c>
+      <c r="V498" t="n">
+        <v>497</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -32909,6 +34405,9 @@
       <c r="U499" t="n">
         <v>1</v>
       </c>
+      <c r="V499" t="n">
+        <v>498</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -32974,6 +34473,9 @@
       <c r="U500" t="n">
         <v>1</v>
       </c>
+      <c r="V500" t="n">
+        <v>499</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -33039,6 +34541,9 @@
       <c r="U501" t="n">
         <v>1</v>
       </c>
+      <c r="V501" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -33104,6 +34609,9 @@
       <c r="U502" t="n">
         <v>0</v>
       </c>
+      <c r="V502" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -33169,6 +34677,9 @@
       <c r="U503" t="n">
         <v>1</v>
       </c>
+      <c r="V503" t="n">
+        <v>502</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -33234,6 +34745,9 @@
       <c r="U504" t="n">
         <v>1</v>
       </c>
+      <c r="V504" t="n">
+        <v>503</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -33299,6 +34813,9 @@
       <c r="U505" t="n">
         <v>1</v>
       </c>
+      <c r="V505" t="n">
+        <v>504</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -33364,6 +34881,9 @@
       <c r="U506" t="n">
         <v>0</v>
       </c>
+      <c r="V506" t="n">
+        <v>505</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -33429,6 +34949,9 @@
       <c r="U507" t="n">
         <v>1</v>
       </c>
+      <c r="V507" t="n">
+        <v>506</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -33494,6 +35017,9 @@
       <c r="U508" t="n">
         <v>1</v>
       </c>
+      <c r="V508" t="n">
+        <v>507</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -33559,6 +35085,9 @@
       <c r="U509" t="n">
         <v>0</v>
       </c>
+      <c r="V509" t="n">
+        <v>508</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -33624,6 +35153,9 @@
       <c r="U510" t="n">
         <v>1</v>
       </c>
+      <c r="V510" t="n">
+        <v>509</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -33689,6 +35221,9 @@
       <c r="U511" t="n">
         <v>1</v>
       </c>
+      <c r="V511" t="n">
+        <v>510</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -33754,6 +35289,9 @@
       <c r="U512" t="n">
         <v>0</v>
       </c>
+      <c r="V512" t="n">
+        <v>511</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -33819,6 +35357,9 @@
       <c r="U513" t="n">
         <v>0</v>
       </c>
+      <c r="V513" t="n">
+        <v>512</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -33884,6 +35425,9 @@
       <c r="U514" t="n">
         <v>1</v>
       </c>
+      <c r="V514" t="n">
+        <v>513</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -33949,6 +35493,9 @@
       <c r="U515" t="n">
         <v>1</v>
       </c>
+      <c r="V515" t="n">
+        <v>514</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -34014,6 +35561,9 @@
       <c r="U516" t="n">
         <v>0</v>
       </c>
+      <c r="V516" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -34079,6 +35629,9 @@
       <c r="U517" t="n">
         <v>0</v>
       </c>
+      <c r="V517" t="n">
+        <v>516</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -34144,6 +35697,9 @@
       <c r="U518" t="n">
         <v>0</v>
       </c>
+      <c r="V518" t="n">
+        <v>517</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -34209,6 +35765,9 @@
       <c r="U519" t="n">
         <v>1</v>
       </c>
+      <c r="V519" t="n">
+        <v>518</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -34274,6 +35833,9 @@
       <c r="U520" t="n">
         <v>1</v>
       </c>
+      <c r="V520" t="n">
+        <v>519</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -34339,6 +35901,9 @@
       <c r="U521" t="n">
         <v>1</v>
       </c>
+      <c r="V521" t="n">
+        <v>520</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -34404,6 +35969,9 @@
       <c r="U522" t="n">
         <v>1</v>
       </c>
+      <c r="V522" t="n">
+        <v>521</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -34469,6 +36037,9 @@
       <c r="U523" t="n">
         <v>0</v>
       </c>
+      <c r="V523" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -34534,6 +36105,9 @@
       <c r="U524" t="n">
         <v>1</v>
       </c>
+      <c r="V524" t="n">
+        <v>523</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -34599,6 +36173,9 @@
       <c r="U525" t="n">
         <v>1</v>
       </c>
+      <c r="V525" t="n">
+        <v>524</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -34664,6 +36241,9 @@
       <c r="U526" t="n">
         <v>1</v>
       </c>
+      <c r="V526" t="n">
+        <v>525</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -34729,6 +36309,9 @@
       <c r="U527" t="n">
         <v>1</v>
       </c>
+      <c r="V527" t="n">
+        <v>526</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -34794,6 +36377,9 @@
       <c r="U528" t="n">
         <v>1</v>
       </c>
+      <c r="V528" t="n">
+        <v>527</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -34859,6 +36445,9 @@
       <c r="U529" t="n">
         <v>1</v>
       </c>
+      <c r="V529" t="n">
+        <v>528</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -34924,6 +36513,9 @@
       <c r="U530" t="n">
         <v>1</v>
       </c>
+      <c r="V530" t="n">
+        <v>529</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -34989,6 +36581,9 @@
       <c r="U531" t="n">
         <v>0</v>
       </c>
+      <c r="V531" t="n">
+        <v>530</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -35054,6 +36649,9 @@
       <c r="U532" t="n">
         <v>0</v>
       </c>
+      <c r="V532" t="n">
+        <v>531</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -35119,6 +36717,9 @@
       <c r="U533" t="n">
         <v>1</v>
       </c>
+      <c r="V533" t="n">
+        <v>532</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -35184,6 +36785,9 @@
       <c r="U534" t="n">
         <v>1</v>
       </c>
+      <c r="V534" t="n">
+        <v>533</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -35249,6 +36853,9 @@
       <c r="U535" t="n">
         <v>1</v>
       </c>
+      <c r="V535" t="n">
+        <v>534</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -35314,6 +36921,9 @@
       <c r="U536" t="n">
         <v>1</v>
       </c>
+      <c r="V536" t="n">
+        <v>535</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -35379,6 +36989,9 @@
       <c r="U537" t="n">
         <v>0</v>
       </c>
+      <c r="V537" t="n">
+        <v>536</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -35444,6 +37057,9 @@
       <c r="U538" t="n">
         <v>1</v>
       </c>
+      <c r="V538" t="n">
+        <v>537</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -35509,6 +37125,9 @@
       <c r="U539" t="n">
         <v>1</v>
       </c>
+      <c r="V539" t="n">
+        <v>538</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -35574,6 +37193,9 @@
       <c r="U540" t="n">
         <v>0</v>
       </c>
+      <c r="V540" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -35639,6 +37261,9 @@
       <c r="U541" t="n">
         <v>1</v>
       </c>
+      <c r="V541" t="n">
+        <v>540</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -35704,6 +37329,9 @@
       <c r="U542" t="n">
         <v>1</v>
       </c>
+      <c r="V542" t="n">
+        <v>541</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -35769,6 +37397,9 @@
       <c r="U543" t="n">
         <v>1</v>
       </c>
+      <c r="V543" t="n">
+        <v>542</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -35834,6 +37465,9 @@
       <c r="U544" t="n">
         <v>1</v>
       </c>
+      <c r="V544" t="n">
+        <v>543</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -35899,6 +37533,9 @@
       <c r="U545" t="n">
         <v>0</v>
       </c>
+      <c r="V545" t="n">
+        <v>544</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -35964,6 +37601,9 @@
       <c r="U546" t="n">
         <v>1</v>
       </c>
+      <c r="V546" t="n">
+        <v>545</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -36029,6 +37669,9 @@
       <c r="U547" t="n">
         <v>0</v>
       </c>
+      <c r="V547" t="n">
+        <v>546</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -36094,6 +37737,9 @@
       <c r="U548" t="n">
         <v>1</v>
       </c>
+      <c r="V548" t="n">
+        <v>547</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -36159,6 +37805,9 @@
       <c r="U549" t="n">
         <v>0</v>
       </c>
+      <c r="V549" t="n">
+        <v>548</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -36224,6 +37873,9 @@
       <c r="U550" t="n">
         <v>1</v>
       </c>
+      <c r="V550" t="n">
+        <v>549</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -36289,6 +37941,9 @@
       <c r="U551" t="n">
         <v>1</v>
       </c>
+      <c r="V551" t="n">
+        <v>550</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -36354,6 +38009,9 @@
       <c r="U552" t="n">
         <v>0</v>
       </c>
+      <c r="V552" t="n">
+        <v>551</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -36419,6 +38077,9 @@
       <c r="U553" t="n">
         <v>0</v>
       </c>
+      <c r="V553" t="n">
+        <v>552</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -36484,6 +38145,9 @@
       <c r="U554" t="n">
         <v>1</v>
       </c>
+      <c r="V554" t="n">
+        <v>553</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -36549,6 +38213,9 @@
       <c r="U555" t="n">
         <v>1</v>
       </c>
+      <c r="V555" t="n">
+        <v>554</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -36614,6 +38281,9 @@
       <c r="U556" t="n">
         <v>1</v>
       </c>
+      <c r="V556" t="n">
+        <v>555</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -36679,6 +38349,9 @@
       <c r="U557" t="n">
         <v>1</v>
       </c>
+      <c r="V557" t="n">
+        <v>556</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -36744,6 +38417,9 @@
       <c r="U558" t="n">
         <v>1</v>
       </c>
+      <c r="V558" t="n">
+        <v>557</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -36809,6 +38485,9 @@
       <c r="U559" t="n">
         <v>1</v>
       </c>
+      <c r="V559" t="n">
+        <v>558</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -36874,6 +38553,9 @@
       <c r="U560" t="n">
         <v>1</v>
       </c>
+      <c r="V560" t="n">
+        <v>559</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -36939,6 +38621,9 @@
       <c r="U561" t="n">
         <v>1</v>
       </c>
+      <c r="V561" t="n">
+        <v>560</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -37004,6 +38689,9 @@
       <c r="U562" t="n">
         <v>1</v>
       </c>
+      <c r="V562" t="n">
+        <v>561</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -37069,6 +38757,9 @@
       <c r="U563" t="n">
         <v>0</v>
       </c>
+      <c r="V563" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -37134,6 +38825,9 @@
       <c r="U564" t="n">
         <v>1</v>
       </c>
+      <c r="V564" t="n">
+        <v>563</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -37199,6 +38893,9 @@
       <c r="U565" t="n">
         <v>1</v>
       </c>
+      <c r="V565" t="n">
+        <v>564</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -37264,6 +38961,9 @@
       <c r="U566" t="n">
         <v>0</v>
       </c>
+      <c r="V566" t="n">
+        <v>565</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -37329,6 +39029,9 @@
       <c r="U567" t="n">
         <v>0</v>
       </c>
+      <c r="V567" t="n">
+        <v>566</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -37394,6 +39097,9 @@
       <c r="U568" t="n">
         <v>0</v>
       </c>
+      <c r="V568" t="n">
+        <v>567</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -37459,6 +39165,9 @@
       <c r="U569" t="n">
         <v>1</v>
       </c>
+      <c r="V569" t="n">
+        <v>568</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -37524,6 +39233,9 @@
       <c r="U570" t="n">
         <v>0</v>
       </c>
+      <c r="V570" t="n">
+        <v>569</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -37589,6 +39301,9 @@
       <c r="U571" t="n">
         <v>1</v>
       </c>
+      <c r="V571" t="n">
+        <v>570</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -37654,6 +39369,9 @@
       <c r="U572" t="n">
         <v>0</v>
       </c>
+      <c r="V572" t="n">
+        <v>571</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -37719,6 +39437,9 @@
       <c r="U573" t="n">
         <v>0</v>
       </c>
+      <c r="V573" t="n">
+        <v>572</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -37784,6 +39505,9 @@
       <c r="U574" t="n">
         <v>1</v>
       </c>
+      <c r="V574" t="n">
+        <v>573</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -37849,6 +39573,9 @@
       <c r="U575" t="n">
         <v>0</v>
       </c>
+      <c r="V575" t="n">
+        <v>574</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -37914,6 +39641,9 @@
       <c r="U576" t="n">
         <v>1</v>
       </c>
+      <c r="V576" t="n">
+        <v>575</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -37979,6 +39709,9 @@
       <c r="U577" t="n">
         <v>1</v>
       </c>
+      <c r="V577" t="n">
+        <v>576</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -38044,6 +39777,9 @@
       <c r="U578" t="n">
         <v>1</v>
       </c>
+      <c r="V578" t="n">
+        <v>577</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -38109,6 +39845,9 @@
       <c r="U579" t="n">
         <v>1</v>
       </c>
+      <c r="V579" t="n">
+        <v>578</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -38174,6 +39913,9 @@
       <c r="U580" t="n">
         <v>0</v>
       </c>
+      <c r="V580" t="n">
+        <v>579</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -38239,6 +39981,9 @@
       <c r="U581" t="n">
         <v>1</v>
       </c>
+      <c r="V581" t="n">
+        <v>580</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -38304,6 +40049,9 @@
       <c r="U582" t="n">
         <v>0</v>
       </c>
+      <c r="V582" t="n">
+        <v>581</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -38369,6 +40117,9 @@
       <c r="U583" t="n">
         <v>0</v>
       </c>
+      <c r="V583" t="n">
+        <v>582</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -38434,6 +40185,9 @@
       <c r="U584" t="n">
         <v>0</v>
       </c>
+      <c r="V584" t="n">
+        <v>583</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -38499,6 +40253,9 @@
       <c r="U585" t="n">
         <v>1</v>
       </c>
+      <c r="V585" t="n">
+        <v>584</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -38564,6 +40321,9 @@
       <c r="U586" t="n">
         <v>1</v>
       </c>
+      <c r="V586" t="n">
+        <v>585</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -38629,6 +40389,9 @@
       <c r="U587" t="n">
         <v>1</v>
       </c>
+      <c r="V587" t="n">
+        <v>586</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -38694,6 +40457,9 @@
       <c r="U588" t="n">
         <v>0</v>
       </c>
+      <c r="V588" t="n">
+        <v>587</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -38759,6 +40525,9 @@
       <c r="U589" t="n">
         <v>1</v>
       </c>
+      <c r="V589" t="n">
+        <v>588</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -38824,6 +40593,9 @@
       <c r="U590" t="n">
         <v>0</v>
       </c>
+      <c r="V590" t="n">
+        <v>589</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -38889,6 +40661,9 @@
       <c r="U591" t="n">
         <v>1</v>
       </c>
+      <c r="V591" t="n">
+        <v>590</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -38954,6 +40729,9 @@
       <c r="U592" t="n">
         <v>1</v>
       </c>
+      <c r="V592" t="n">
+        <v>591</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -39019,6 +40797,9 @@
       <c r="U593" t="n">
         <v>1</v>
       </c>
+      <c r="V593" t="n">
+        <v>592</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -39084,6 +40865,9 @@
       <c r="U594" t="n">
         <v>1</v>
       </c>
+      <c r="V594" t="n">
+        <v>593</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -39149,6 +40933,9 @@
       <c r="U595" t="n">
         <v>0</v>
       </c>
+      <c r="V595" t="n">
+        <v>594</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -39214,6 +41001,9 @@
       <c r="U596" t="n">
         <v>0</v>
       </c>
+      <c r="V596" t="n">
+        <v>595</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -39279,6 +41069,9 @@
       <c r="U597" t="n">
         <v>1</v>
       </c>
+      <c r="V597" t="n">
+        <v>596</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -39344,6 +41137,9 @@
       <c r="U598" t="n">
         <v>1</v>
       </c>
+      <c r="V598" t="n">
+        <v>597</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -39409,6 +41205,9 @@
       <c r="U599" t="n">
         <v>0</v>
       </c>
+      <c r="V599" t="n">
+        <v>598</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -39474,6 +41273,9 @@
       <c r="U600" t="n">
         <v>1</v>
       </c>
+      <c r="V600" t="n">
+        <v>599</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -39539,6 +41341,9 @@
       <c r="U601" t="n">
         <v>1</v>
       </c>
+      <c r="V601" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -39604,6 +41409,9 @@
       <c r="U602" t="n">
         <v>1</v>
       </c>
+      <c r="V602" t="n">
+        <v>601</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -39669,6 +41477,9 @@
       <c r="U603" t="n">
         <v>1</v>
       </c>
+      <c r="V603" t="n">
+        <v>602</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -39734,6 +41545,9 @@
       <c r="U604" t="n">
         <v>0</v>
       </c>
+      <c r="V604" t="n">
+        <v>603</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -39799,6 +41613,9 @@
       <c r="U605" t="n">
         <v>1</v>
       </c>
+      <c r="V605" t="n">
+        <v>604</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -39864,6 +41681,9 @@
       <c r="U606" t="n">
         <v>1</v>
       </c>
+      <c r="V606" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -39929,6 +41749,9 @@
       <c r="U607" t="n">
         <v>1</v>
       </c>
+      <c r="V607" t="n">
+        <v>606</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -39994,6 +41817,9 @@
       <c r="U608" t="n">
         <v>1</v>
       </c>
+      <c r="V608" t="n">
+        <v>607</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -40059,6 +41885,9 @@
       <c r="U609" t="n">
         <v>1</v>
       </c>
+      <c r="V609" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -40124,6 +41953,9 @@
       <c r="U610" t="n">
         <v>1</v>
       </c>
+      <c r="V610" t="n">
+        <v>609</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -40189,6 +42021,9 @@
       <c r="U611" t="n">
         <v>1</v>
       </c>
+      <c r="V611" t="n">
+        <v>610</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -40253,6 +42088,9 @@
       </c>
       <c r="U612" t="n">
         <v>0</v>
+      </c>
+      <c r="V612" t="n">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataset_v3.xlsx
+++ b/data/dataset_v3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V612"/>
+  <dimension ref="A1:U612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,6 @@
           <t>Loan_Status</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Loan_ID</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -609,9 +604,6 @@
       <c r="U2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -677,9 +669,6 @@
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -745,9 +734,6 @@
       <c r="U4" t="n">
         <v>1</v>
       </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -813,9 +799,6 @@
       <c r="U5" t="n">
         <v>1</v>
       </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -881,9 +864,6 @@
       <c r="U6" t="n">
         <v>1</v>
       </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -949,9 +929,6 @@
       <c r="U7" t="n">
         <v>1</v>
       </c>
-      <c r="V7" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1017,9 +994,6 @@
       <c r="U8" t="n">
         <v>1</v>
       </c>
-      <c r="V8" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1085,9 +1059,6 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1153,9 +1124,6 @@
       <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1221,9 +1189,6 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1289,9 +1254,6 @@
       <c r="U12" t="n">
         <v>1</v>
       </c>
-      <c r="V12" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1357,9 +1319,6 @@
       <c r="U13" t="n">
         <v>1</v>
       </c>
-      <c r="V13" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1425,9 +1384,6 @@
       <c r="U14" t="n">
         <v>1</v>
       </c>
-      <c r="V14" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1493,9 +1449,6 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1561,9 +1514,6 @@
       <c r="U16" t="n">
         <v>1</v>
       </c>
-      <c r="V16" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1629,9 +1579,6 @@
       <c r="U17" t="n">
         <v>1</v>
       </c>
-      <c r="V17" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1697,9 +1644,6 @@
       <c r="U18" t="n">
         <v>1</v>
       </c>
-      <c r="V18" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1765,9 +1709,6 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
-      <c r="V19" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1833,9 +1774,6 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1901,9 +1839,6 @@
       <c r="U21" t="n">
         <v>1</v>
       </c>
-      <c r="V21" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1969,9 +1904,6 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2037,9 +1969,6 @@
       <c r="U23" t="n">
         <v>1</v>
       </c>
-      <c r="V23" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2105,9 +2034,6 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
-      <c r="V24" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2173,9 +2099,6 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
-      <c r="V25" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2241,9 +2164,6 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
-      <c r="V26" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2309,9 +2229,6 @@
       <c r="U27" t="n">
         <v>1</v>
       </c>
-      <c r="V27" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2377,9 +2294,6 @@
       <c r="U28" t="n">
         <v>1</v>
       </c>
-      <c r="V28" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2445,9 +2359,6 @@
       <c r="U29" t="n">
         <v>1</v>
       </c>
-      <c r="V29" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2513,9 +2424,6 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2581,9 +2489,6 @@
       <c r="U31" t="n">
         <v>1</v>
       </c>
-      <c r="V31" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2649,9 +2554,6 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
-      <c r="V32" t="n">
-        <v>31</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2717,9 +2619,6 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2785,9 +2684,6 @@
       <c r="U34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="n">
-        <v>33</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2853,9 +2749,6 @@
       <c r="U35" t="n">
         <v>1</v>
       </c>
-      <c r="V35" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2921,9 +2814,6 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
-      <c r="V36" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2989,9 +2879,6 @@
       <c r="U37" t="n">
         <v>1</v>
       </c>
-      <c r="V37" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3057,9 +2944,6 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3125,9 +3009,6 @@
       <c r="U39" t="n">
         <v>1</v>
       </c>
-      <c r="V39" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3193,9 +3074,6 @@
       <c r="U40" t="n">
         <v>1</v>
       </c>
-      <c r="V40" t="n">
-        <v>39</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3261,9 +3139,6 @@
       <c r="U41" t="n">
         <v>1</v>
       </c>
-      <c r="V41" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3329,9 +3204,6 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3397,9 +3269,6 @@
       <c r="U43" t="n">
         <v>1</v>
       </c>
-      <c r="V43" t="n">
-        <v>42</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3465,9 +3334,6 @@
       <c r="U44" t="n">
         <v>1</v>
       </c>
-      <c r="V44" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3533,9 +3399,6 @@
       <c r="U45" t="n">
         <v>1</v>
       </c>
-      <c r="V45" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3601,9 +3464,6 @@
       <c r="U46" t="n">
         <v>1</v>
       </c>
-      <c r="V46" t="n">
-        <v>45</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3669,9 +3529,6 @@
       <c r="U47" t="n">
         <v>1</v>
       </c>
-      <c r="V47" t="n">
-        <v>46</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3737,9 +3594,6 @@
       <c r="U48" t="n">
         <v>1</v>
       </c>
-      <c r="V48" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3805,9 +3659,6 @@
       <c r="U49" t="n">
         <v>1</v>
       </c>
-      <c r="V49" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3873,9 +3724,6 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3941,9 +3789,6 @@
       <c r="U51" t="n">
         <v>1</v>
       </c>
-      <c r="V51" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4009,9 +3854,6 @@
       <c r="U52" t="n">
         <v>1</v>
       </c>
-      <c r="V52" t="n">
-        <v>51</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4077,9 +3919,6 @@
       <c r="U53" t="n">
         <v>1</v>
       </c>
-      <c r="V53" t="n">
-        <v>52</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4145,9 +3984,6 @@
       <c r="U54" t="n">
         <v>0</v>
       </c>
-      <c r="V54" t="n">
-        <v>53</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4213,9 +4049,6 @@
       <c r="U55" t="n">
         <v>0</v>
       </c>
-      <c r="V55" t="n">
-        <v>54</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4281,9 +4114,6 @@
       <c r="U56" t="n">
         <v>0</v>
       </c>
-      <c r="V56" t="n">
-        <v>55</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4349,9 +4179,6 @@
       <c r="U57" t="n">
         <v>1</v>
       </c>
-      <c r="V57" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4417,9 +4244,6 @@
       <c r="U58" t="n">
         <v>1</v>
       </c>
-      <c r="V58" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4485,9 +4309,6 @@
       <c r="U59" t="n">
         <v>0</v>
       </c>
-      <c r="V59" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4553,9 +4374,6 @@
       <c r="U60" t="n">
         <v>1</v>
       </c>
-      <c r="V60" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4621,9 +4439,6 @@
       <c r="U61" t="n">
         <v>1</v>
       </c>
-      <c r="V61" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4689,9 +4504,6 @@
       <c r="U62" t="n">
         <v>1</v>
       </c>
-      <c r="V62" t="n">
-        <v>61</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4757,9 +4569,6 @@
       <c r="U63" t="n">
         <v>1</v>
       </c>
-      <c r="V63" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4825,9 +4634,6 @@
       <c r="U64" t="n">
         <v>0</v>
       </c>
-      <c r="V64" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4893,9 +4699,6 @@
       <c r="U65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4961,9 +4764,6 @@
       <c r="U66" t="n">
         <v>0</v>
       </c>
-      <c r="V66" t="n">
-        <v>65</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5029,9 +4829,6 @@
       <c r="U67" t="n">
         <v>0</v>
       </c>
-      <c r="V67" t="n">
-        <v>66</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5097,9 +4894,6 @@
       <c r="U68" t="n">
         <v>0</v>
       </c>
-      <c r="V68" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5165,9 +4959,6 @@
       <c r="U69" t="n">
         <v>1</v>
       </c>
-      <c r="V69" t="n">
-        <v>68</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5233,9 +5024,6 @@
       <c r="U70" t="n">
         <v>1</v>
       </c>
-      <c r="V70" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5301,9 +5089,6 @@
       <c r="U71" t="n">
         <v>0</v>
       </c>
-      <c r="V71" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5369,9 +5154,6 @@
       <c r="U72" t="n">
         <v>1</v>
       </c>
-      <c r="V72" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5437,9 +5219,6 @@
       <c r="U73" t="n">
         <v>1</v>
       </c>
-      <c r="V73" t="n">
-        <v>72</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5505,9 +5284,6 @@
       <c r="U74" t="n">
         <v>1</v>
       </c>
-      <c r="V74" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5573,9 +5349,6 @@
       <c r="U75" t="n">
         <v>0</v>
       </c>
-      <c r="V75" t="n">
-        <v>74</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5641,9 +5414,6 @@
       <c r="U76" t="n">
         <v>1</v>
       </c>
-      <c r="V76" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5709,9 +5479,6 @@
       <c r="U77" t="n">
         <v>0</v>
       </c>
-      <c r="V77" t="n">
-        <v>76</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5777,9 +5544,6 @@
       <c r="U78" t="n">
         <v>0</v>
       </c>
-      <c r="V78" t="n">
-        <v>77</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5845,9 +5609,6 @@
       <c r="U79" t="n">
         <v>0</v>
       </c>
-      <c r="V79" t="n">
-        <v>78</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5913,9 +5674,6 @@
       <c r="U80" t="n">
         <v>0</v>
       </c>
-      <c r="V80" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5981,9 +5739,6 @@
       <c r="U81" t="n">
         <v>1</v>
       </c>
-      <c r="V81" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6049,9 +5804,6 @@
       <c r="U82" t="n">
         <v>1</v>
       </c>
-      <c r="V82" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6117,9 +5869,6 @@
       <c r="U83" t="n">
         <v>1</v>
       </c>
-      <c r="V83" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6185,9 +5934,6 @@
       <c r="U84" t="n">
         <v>0</v>
       </c>
-      <c r="V84" t="n">
-        <v>83</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6253,9 +5999,6 @@
       <c r="U85" t="n">
         <v>0</v>
       </c>
-      <c r="V85" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6321,9 +6064,6 @@
       <c r="U86" t="n">
         <v>1</v>
       </c>
-      <c r="V86" t="n">
-        <v>85</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6389,9 +6129,6 @@
       <c r="U87" t="n">
         <v>1</v>
       </c>
-      <c r="V87" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6457,9 +6194,6 @@
       <c r="U88" t="n">
         <v>1</v>
       </c>
-      <c r="V88" t="n">
-        <v>87</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6525,9 +6259,6 @@
       <c r="U89" t="n">
         <v>1</v>
       </c>
-      <c r="V89" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6593,9 +6324,6 @@
       <c r="U90" t="n">
         <v>1</v>
       </c>
-      <c r="V90" t="n">
-        <v>89</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6661,9 +6389,6 @@
       <c r="U91" t="n">
         <v>1</v>
       </c>
-      <c r="V91" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6729,9 +6454,6 @@
       <c r="U92" t="n">
         <v>1</v>
       </c>
-      <c r="V92" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6797,9 +6519,6 @@
       <c r="U93" t="n">
         <v>1</v>
       </c>
-      <c r="V93" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6865,9 +6584,6 @@
       <c r="U94" t="n">
         <v>1</v>
       </c>
-      <c r="V94" t="n">
-        <v>93</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6933,9 +6649,6 @@
       <c r="U95" t="n">
         <v>1</v>
       </c>
-      <c r="V95" t="n">
-        <v>94</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7001,9 +6714,6 @@
       <c r="U96" t="n">
         <v>1</v>
       </c>
-      <c r="V96" t="n">
-        <v>95</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7069,9 +6779,6 @@
       <c r="U97" t="n">
         <v>0</v>
       </c>
-      <c r="V97" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7137,9 +6844,6 @@
       <c r="U98" t="n">
         <v>1</v>
       </c>
-      <c r="V98" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7205,9 +6909,6 @@
       <c r="U99" t="n">
         <v>1</v>
       </c>
-      <c r="V99" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7273,9 +6974,6 @@
       <c r="U100" t="n">
         <v>1</v>
       </c>
-      <c r="V100" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7341,9 +7039,6 @@
       <c r="U101" t="n">
         <v>1</v>
       </c>
-      <c r="V101" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7409,9 +7104,6 @@
       <c r="U102" t="n">
         <v>1</v>
       </c>
-      <c r="V102" t="n">
-        <v>101</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7477,9 +7169,6 @@
       <c r="U103" t="n">
         <v>1</v>
       </c>
-      <c r="V103" t="n">
-        <v>102</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7545,9 +7234,6 @@
       <c r="U104" t="n">
         <v>1</v>
       </c>
-      <c r="V104" t="n">
-        <v>103</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7613,9 +7299,6 @@
       <c r="U105" t="n">
         <v>1</v>
       </c>
-      <c r="V105" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7681,9 +7364,6 @@
       <c r="U106" t="n">
         <v>1</v>
       </c>
-      <c r="V106" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7749,9 +7429,6 @@
       <c r="U107" t="n">
         <v>1</v>
       </c>
-      <c r="V107" t="n">
-        <v>106</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7817,9 +7494,6 @@
       <c r="U108" t="n">
         <v>0</v>
       </c>
-      <c r="V108" t="n">
-        <v>107</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7885,9 +7559,6 @@
       <c r="U109" t="n">
         <v>0</v>
       </c>
-      <c r="V109" t="n">
-        <v>108</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7953,9 +7624,6 @@
       <c r="U110" t="n">
         <v>1</v>
       </c>
-      <c r="V110" t="n">
-        <v>109</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8021,9 +7689,6 @@
       <c r="U111" t="n">
         <v>1</v>
       </c>
-      <c r="V111" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8089,9 +7754,6 @@
       <c r="U112" t="n">
         <v>1</v>
       </c>
-      <c r="V112" t="n">
-        <v>111</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8157,9 +7819,6 @@
       <c r="U113" t="n">
         <v>0</v>
       </c>
-      <c r="V113" t="n">
-        <v>112</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8225,9 +7884,6 @@
       <c r="U114" t="n">
         <v>1</v>
       </c>
-      <c r="V114" t="n">
-        <v>113</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8293,9 +7949,6 @@
       <c r="U115" t="n">
         <v>1</v>
       </c>
-      <c r="V115" t="n">
-        <v>114</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8361,9 +8014,6 @@
       <c r="U116" t="n">
         <v>1</v>
       </c>
-      <c r="V116" t="n">
-        <v>115</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8429,9 +8079,6 @@
       <c r="U117" t="n">
         <v>1</v>
       </c>
-      <c r="V117" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8497,9 +8144,6 @@
       <c r="U118" t="n">
         <v>1</v>
       </c>
-      <c r="V118" t="n">
-        <v>117</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8565,9 +8209,6 @@
       <c r="U119" t="n">
         <v>0</v>
       </c>
-      <c r="V119" t="n">
-        <v>118</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8633,9 +8274,6 @@
       <c r="U120" t="n">
         <v>1</v>
       </c>
-      <c r="V120" t="n">
-        <v>119</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8701,9 +8339,6 @@
       <c r="U121" t="n">
         <v>1</v>
       </c>
-      <c r="V121" t="n">
-        <v>120</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8769,9 +8404,6 @@
       <c r="U122" t="n">
         <v>1</v>
       </c>
-      <c r="V122" t="n">
-        <v>121</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8837,9 +8469,6 @@
       <c r="U123" t="n">
         <v>1</v>
       </c>
-      <c r="V123" t="n">
-        <v>122</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8905,9 +8534,6 @@
       <c r="U124" t="n">
         <v>1</v>
       </c>
-      <c r="V124" t="n">
-        <v>123</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8973,9 +8599,6 @@
       <c r="U125" t="n">
         <v>1</v>
       </c>
-      <c r="V125" t="n">
-        <v>124</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -9041,9 +8664,6 @@
       <c r="U126" t="n">
         <v>1</v>
       </c>
-      <c r="V126" t="n">
-        <v>125</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9109,9 +8729,6 @@
       <c r="U127" t="n">
         <v>1</v>
       </c>
-      <c r="V127" t="n">
-        <v>126</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -9177,9 +8794,6 @@
       <c r="U128" t="n">
         <v>1</v>
       </c>
-      <c r="V128" t="n">
-        <v>127</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9245,9 +8859,6 @@
       <c r="U129" t="n">
         <v>0</v>
       </c>
-      <c r="V129" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -9313,9 +8924,6 @@
       <c r="U130" t="n">
         <v>0</v>
       </c>
-      <c r="V130" t="n">
-        <v>129</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -9381,9 +8989,6 @@
       <c r="U131" t="n">
         <v>1</v>
       </c>
-      <c r="V131" t="n">
-        <v>130</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -9449,9 +9054,6 @@
       <c r="U132" t="n">
         <v>1</v>
       </c>
-      <c r="V132" t="n">
-        <v>131</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -9517,9 +9119,6 @@
       <c r="U133" t="n">
         <v>1</v>
       </c>
-      <c r="V133" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9585,9 +9184,6 @@
       <c r="U134" t="n">
         <v>1</v>
       </c>
-      <c r="V134" t="n">
-        <v>133</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -9653,9 +9249,6 @@
       <c r="U135" t="n">
         <v>1</v>
       </c>
-      <c r="V135" t="n">
-        <v>134</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9721,9 +9314,6 @@
       <c r="U136" t="n">
         <v>0</v>
       </c>
-      <c r="V136" t="n">
-        <v>135</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9789,9 +9379,6 @@
       <c r="U137" t="n">
         <v>0</v>
       </c>
-      <c r="V137" t="n">
-        <v>136</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9857,9 +9444,6 @@
       <c r="U138" t="n">
         <v>1</v>
       </c>
-      <c r="V138" t="n">
-        <v>137</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9925,9 +9509,6 @@
       <c r="U139" t="n">
         <v>0</v>
       </c>
-      <c r="V139" t="n">
-        <v>138</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9993,9 +9574,6 @@
       <c r="U140" t="n">
         <v>0</v>
       </c>
-      <c r="V140" t="n">
-        <v>139</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10061,9 +9639,6 @@
       <c r="U141" t="n">
         <v>0</v>
       </c>
-      <c r="V141" t="n">
-        <v>140</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10129,9 +9704,6 @@
       <c r="U142" t="n">
         <v>1</v>
       </c>
-      <c r="V142" t="n">
-        <v>141</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -10197,9 +9769,6 @@
       <c r="U143" t="n">
         <v>1</v>
       </c>
-      <c r="V143" t="n">
-        <v>142</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -10265,9 +9834,6 @@
       <c r="U144" t="n">
         <v>1</v>
       </c>
-      <c r="V144" t="n">
-        <v>143</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10333,9 +9899,6 @@
       <c r="U145" t="n">
         <v>1</v>
       </c>
-      <c r="V145" t="n">
-        <v>144</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10401,9 +9964,6 @@
       <c r="U146" t="n">
         <v>1</v>
       </c>
-      <c r="V146" t="n">
-        <v>145</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10469,9 +10029,6 @@
       <c r="U147" t="n">
         <v>1</v>
       </c>
-      <c r="V147" t="n">
-        <v>146</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -10537,9 +10094,6 @@
       <c r="U148" t="n">
         <v>1</v>
       </c>
-      <c r="V148" t="n">
-        <v>147</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10605,9 +10159,6 @@
       <c r="U149" t="n">
         <v>0</v>
       </c>
-      <c r="V149" t="n">
-        <v>148</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -10673,9 +10224,6 @@
       <c r="U150" t="n">
         <v>1</v>
       </c>
-      <c r="V150" t="n">
-        <v>149</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -10741,9 +10289,6 @@
       <c r="U151" t="n">
         <v>0</v>
       </c>
-      <c r="V151" t="n">
-        <v>150</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10809,9 +10354,6 @@
       <c r="U152" t="n">
         <v>1</v>
       </c>
-      <c r="V152" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10877,9 +10419,6 @@
       <c r="U153" t="n">
         <v>0</v>
       </c>
-      <c r="V153" t="n">
-        <v>152</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10945,9 +10484,6 @@
       <c r="U154" t="n">
         <v>0</v>
       </c>
-      <c r="V154" t="n">
-        <v>153</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11013,9 +10549,6 @@
       <c r="U155" t="n">
         <v>1</v>
       </c>
-      <c r="V155" t="n">
-        <v>154</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11081,9 +10614,6 @@
       <c r="U156" t="n">
         <v>1</v>
       </c>
-      <c r="V156" t="n">
-        <v>155</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11149,9 +10679,6 @@
       <c r="U157" t="n">
         <v>1</v>
       </c>
-      <c r="V157" t="n">
-        <v>156</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11217,9 +10744,6 @@
       <c r="U158" t="n">
         <v>1</v>
       </c>
-      <c r="V158" t="n">
-        <v>157</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -11285,9 +10809,6 @@
       <c r="U159" t="n">
         <v>1</v>
       </c>
-      <c r="V159" t="n">
-        <v>158</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -11353,9 +10874,6 @@
       <c r="U160" t="n">
         <v>1</v>
       </c>
-      <c r="V160" t="n">
-        <v>159</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -11421,9 +10939,6 @@
       <c r="U161" t="n">
         <v>1</v>
       </c>
-      <c r="V161" t="n">
-        <v>160</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -11489,9 +11004,6 @@
       <c r="U162" t="n">
         <v>0</v>
       </c>
-      <c r="V162" t="n">
-        <v>161</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -11557,9 +11069,6 @@
       <c r="U163" t="n">
         <v>0</v>
       </c>
-      <c r="V163" t="n">
-        <v>162</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -11625,9 +11134,6 @@
       <c r="U164" t="n">
         <v>1</v>
       </c>
-      <c r="V164" t="n">
-        <v>163</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -11693,9 +11199,6 @@
       <c r="U165" t="n">
         <v>1</v>
       </c>
-      <c r="V165" t="n">
-        <v>164</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -11761,9 +11264,6 @@
       <c r="U166" t="n">
         <v>1</v>
       </c>
-      <c r="V166" t="n">
-        <v>165</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -11829,9 +11329,6 @@
       <c r="U167" t="n">
         <v>0</v>
       </c>
-      <c r="V167" t="n">
-        <v>166</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11897,9 +11394,6 @@
       <c r="U168" t="n">
         <v>1</v>
       </c>
-      <c r="V168" t="n">
-        <v>167</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11965,9 +11459,6 @@
       <c r="U169" t="n">
         <v>0</v>
       </c>
-      <c r="V169" t="n">
-        <v>168</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -12033,9 +11524,6 @@
       <c r="U170" t="n">
         <v>1</v>
       </c>
-      <c r="V170" t="n">
-        <v>169</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -12101,9 +11589,6 @@
       <c r="U171" t="n">
         <v>1</v>
       </c>
-      <c r="V171" t="n">
-        <v>170</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -12169,9 +11654,6 @@
       <c r="U172" t="n">
         <v>1</v>
       </c>
-      <c r="V172" t="n">
-        <v>171</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -12237,9 +11719,6 @@
       <c r="U173" t="n">
         <v>0</v>
       </c>
-      <c r="V173" t="n">
-        <v>172</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12305,9 +11784,6 @@
       <c r="U174" t="n">
         <v>1</v>
       </c>
-      <c r="V174" t="n">
-        <v>173</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -12373,9 +11849,6 @@
       <c r="U175" t="n">
         <v>0</v>
       </c>
-      <c r="V175" t="n">
-        <v>174</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -12441,9 +11914,6 @@
       <c r="U176" t="n">
         <v>1</v>
       </c>
-      <c r="V176" t="n">
-        <v>175</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -12509,9 +11979,6 @@
       <c r="U177" t="n">
         <v>1</v>
       </c>
-      <c r="V177" t="n">
-        <v>176</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -12577,9 +12044,6 @@
       <c r="U178" t="n">
         <v>0</v>
       </c>
-      <c r="V178" t="n">
-        <v>177</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -12645,9 +12109,6 @@
       <c r="U179" t="n">
         <v>1</v>
       </c>
-      <c r="V179" t="n">
-        <v>178</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -12713,9 +12174,6 @@
       <c r="U180" t="n">
         <v>0</v>
       </c>
-      <c r="V180" t="n">
-        <v>179</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -12781,9 +12239,6 @@
       <c r="U181" t="n">
         <v>0</v>
       </c>
-      <c r="V181" t="n">
-        <v>180</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -12849,9 +12304,6 @@
       <c r="U182" t="n">
         <v>0</v>
       </c>
-      <c r="V182" t="n">
-        <v>181</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -12917,9 +12369,6 @@
       <c r="U183" t="n">
         <v>1</v>
       </c>
-      <c r="V183" t="n">
-        <v>182</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12985,9 +12434,6 @@
       <c r="U184" t="n">
         <v>0</v>
       </c>
-      <c r="V184" t="n">
-        <v>183</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -13053,9 +12499,6 @@
       <c r="U185" t="n">
         <v>1</v>
       </c>
-      <c r="V185" t="n">
-        <v>184</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13121,9 +12564,6 @@
       <c r="U186" t="n">
         <v>1</v>
       </c>
-      <c r="V186" t="n">
-        <v>185</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -13189,9 +12629,6 @@
       <c r="U187" t="n">
         <v>0</v>
       </c>
-      <c r="V187" t="n">
-        <v>186</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13257,9 +12694,6 @@
       <c r="U188" t="n">
         <v>1</v>
       </c>
-      <c r="V188" t="n">
-        <v>187</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13325,9 +12759,6 @@
       <c r="U189" t="n">
         <v>1</v>
       </c>
-      <c r="V189" t="n">
-        <v>188</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -13393,9 +12824,6 @@
       <c r="U190" t="n">
         <v>1</v>
       </c>
-      <c r="V190" t="n">
-        <v>189</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -13461,9 +12889,6 @@
       <c r="U191" t="n">
         <v>1</v>
       </c>
-      <c r="V191" t="n">
-        <v>190</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -13529,9 +12954,6 @@
       <c r="U192" t="n">
         <v>0</v>
       </c>
-      <c r="V192" t="n">
-        <v>191</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -13597,9 +13019,6 @@
       <c r="U193" t="n">
         <v>0</v>
       </c>
-      <c r="V193" t="n">
-        <v>192</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -13665,9 +13084,6 @@
       <c r="U194" t="n">
         <v>1</v>
       </c>
-      <c r="V194" t="n">
-        <v>193</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -13733,9 +13149,6 @@
       <c r="U195" t="n">
         <v>1</v>
       </c>
-      <c r="V195" t="n">
-        <v>194</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -13801,9 +13214,6 @@
       <c r="U196" t="n">
         <v>0</v>
       </c>
-      <c r="V196" t="n">
-        <v>195</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -13869,9 +13279,6 @@
       <c r="U197" t="n">
         <v>1</v>
       </c>
-      <c r="V197" t="n">
-        <v>196</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -13937,9 +13344,6 @@
       <c r="U198" t="n">
         <v>1</v>
       </c>
-      <c r="V198" t="n">
-        <v>197</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -14005,9 +13409,6 @@
       <c r="U199" t="n">
         <v>1</v>
       </c>
-      <c r="V199" t="n">
-        <v>198</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -14073,9 +13474,6 @@
       <c r="U200" t="n">
         <v>0</v>
       </c>
-      <c r="V200" t="n">
-        <v>199</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -14141,9 +13539,6 @@
       <c r="U201" t="n">
         <v>1</v>
       </c>
-      <c r="V201" t="n">
-        <v>200</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -14209,9 +13604,6 @@
       <c r="U202" t="n">
         <v>1</v>
       </c>
-      <c r="V202" t="n">
-        <v>201</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -14277,9 +13669,6 @@
       <c r="U203" t="n">
         <v>0</v>
       </c>
-      <c r="V203" t="n">
-        <v>202</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -14345,9 +13734,6 @@
       <c r="U204" t="n">
         <v>1</v>
       </c>
-      <c r="V204" t="n">
-        <v>203</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -14413,9 +13799,6 @@
       <c r="U205" t="n">
         <v>1</v>
       </c>
-      <c r="V205" t="n">
-        <v>204</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -14481,9 +13864,6 @@
       <c r="U206" t="n">
         <v>1</v>
       </c>
-      <c r="V206" t="n">
-        <v>205</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -14549,9 +13929,6 @@
       <c r="U207" t="n">
         <v>1</v>
       </c>
-      <c r="V207" t="n">
-        <v>206</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -14617,9 +13994,6 @@
       <c r="U208" t="n">
         <v>1</v>
       </c>
-      <c r="V208" t="n">
-        <v>207</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -14685,9 +14059,6 @@
       <c r="U209" t="n">
         <v>1</v>
       </c>
-      <c r="V209" t="n">
-        <v>208</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -14753,9 +14124,6 @@
       <c r="U210" t="n">
         <v>0</v>
       </c>
-      <c r="V210" t="n">
-        <v>209</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -14821,9 +14189,6 @@
       <c r="U211" t="n">
         <v>0</v>
       </c>
-      <c r="V211" t="n">
-        <v>210</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -14889,9 +14254,6 @@
       <c r="U212" t="n">
         <v>0</v>
       </c>
-      <c r="V212" t="n">
-        <v>211</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -14957,9 +14319,6 @@
       <c r="U213" t="n">
         <v>1</v>
       </c>
-      <c r="V213" t="n">
-        <v>212</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -15025,9 +14384,6 @@
       <c r="U214" t="n">
         <v>1</v>
       </c>
-      <c r="V214" t="n">
-        <v>213</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -15093,9 +14449,6 @@
       <c r="U215" t="n">
         <v>1</v>
       </c>
-      <c r="V215" t="n">
-        <v>214</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -15161,9 +14514,6 @@
       <c r="U216" t="n">
         <v>1</v>
       </c>
-      <c r="V216" t="n">
-        <v>215</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -15229,9 +14579,6 @@
       <c r="U217" t="n">
         <v>0</v>
       </c>
-      <c r="V217" t="n">
-        <v>216</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -15297,9 +14644,6 @@
       <c r="U218" t="n">
         <v>1</v>
       </c>
-      <c r="V218" t="n">
-        <v>217</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -15365,9 +14709,6 @@
       <c r="U219" t="n">
         <v>0</v>
       </c>
-      <c r="V219" t="n">
-        <v>218</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15433,9 +14774,6 @@
       <c r="U220" t="n">
         <v>1</v>
       </c>
-      <c r="V220" t="n">
-        <v>219</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -15501,9 +14839,6 @@
       <c r="U221" t="n">
         <v>0</v>
       </c>
-      <c r="V221" t="n">
-        <v>220</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -15569,9 +14904,6 @@
       <c r="U222" t="n">
         <v>1</v>
       </c>
-      <c r="V222" t="n">
-        <v>221</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -15637,9 +14969,6 @@
       <c r="U223" t="n">
         <v>1</v>
       </c>
-      <c r="V223" t="n">
-        <v>222</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -15705,9 +15034,6 @@
       <c r="U224" t="n">
         <v>1</v>
       </c>
-      <c r="V224" t="n">
-        <v>223</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -15773,9 +15099,6 @@
       <c r="U225" t="n">
         <v>1</v>
       </c>
-      <c r="V225" t="n">
-        <v>224</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -15841,9 +15164,6 @@
       <c r="U226" t="n">
         <v>0</v>
       </c>
-      <c r="V226" t="n">
-        <v>225</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -15909,9 +15229,6 @@
       <c r="U227" t="n">
         <v>0</v>
       </c>
-      <c r="V227" t="n">
-        <v>226</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -15977,9 +15294,6 @@
       <c r="U228" t="n">
         <v>1</v>
       </c>
-      <c r="V228" t="n">
-        <v>227</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -16045,9 +15359,6 @@
       <c r="U229" t="n">
         <v>1</v>
       </c>
-      <c r="V229" t="n">
-        <v>228</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -16113,9 +15424,6 @@
       <c r="U230" t="n">
         <v>1</v>
       </c>
-      <c r="V230" t="n">
-        <v>229</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -16181,9 +15489,6 @@
       <c r="U231" t="n">
         <v>1</v>
       </c>
-      <c r="V231" t="n">
-        <v>230</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -16249,9 +15554,6 @@
       <c r="U232" t="n">
         <v>1</v>
       </c>
-      <c r="V232" t="n">
-        <v>231</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -16317,9 +15619,6 @@
       <c r="U233" t="n">
         <v>1</v>
       </c>
-      <c r="V233" t="n">
-        <v>232</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -16385,9 +15684,6 @@
       <c r="U234" t="n">
         <v>1</v>
       </c>
-      <c r="V234" t="n">
-        <v>233</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -16453,9 +15749,6 @@
       <c r="U235" t="n">
         <v>1</v>
       </c>
-      <c r="V235" t="n">
-        <v>234</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -16521,9 +15814,6 @@
       <c r="U236" t="n">
         <v>0</v>
       </c>
-      <c r="V236" t="n">
-        <v>235</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -16589,9 +15879,6 @@
       <c r="U237" t="n">
         <v>1</v>
       </c>
-      <c r="V237" t="n">
-        <v>236</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -16657,9 +15944,6 @@
       <c r="U238" t="n">
         <v>1</v>
       </c>
-      <c r="V238" t="n">
-        <v>237</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -16725,9 +16009,6 @@
       <c r="U239" t="n">
         <v>1</v>
       </c>
-      <c r="V239" t="n">
-        <v>238</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -16793,9 +16074,6 @@
       <c r="U240" t="n">
         <v>1</v>
       </c>
-      <c r="V240" t="n">
-        <v>239</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -16861,9 +16139,6 @@
       <c r="U241" t="n">
         <v>0</v>
       </c>
-      <c r="V241" t="n">
-        <v>240</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -16929,9 +16204,6 @@
       <c r="U242" t="n">
         <v>1</v>
       </c>
-      <c r="V242" t="n">
-        <v>241</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -16997,9 +16269,6 @@
       <c r="U243" t="n">
         <v>1</v>
       </c>
-      <c r="V243" t="n">
-        <v>242</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -17065,9 +16334,6 @@
       <c r="U244" t="n">
         <v>1</v>
       </c>
-      <c r="V244" t="n">
-        <v>243</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -17133,9 +16399,6 @@
       <c r="U245" t="n">
         <v>0</v>
       </c>
-      <c r="V245" t="n">
-        <v>244</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -17201,9 +16464,6 @@
       <c r="U246" t="n">
         <v>1</v>
       </c>
-      <c r="V246" t="n">
-        <v>245</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -17269,9 +16529,6 @@
       <c r="U247" t="n">
         <v>1</v>
       </c>
-      <c r="V247" t="n">
-        <v>246</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -17337,9 +16594,6 @@
       <c r="U248" t="n">
         <v>1</v>
       </c>
-      <c r="V248" t="n">
-        <v>247</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -17405,9 +16659,6 @@
       <c r="U249" t="n">
         <v>1</v>
       </c>
-      <c r="V249" t="n">
-        <v>248</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -17473,9 +16724,6 @@
       <c r="U250" t="n">
         <v>0</v>
       </c>
-      <c r="V250" t="n">
-        <v>249</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -17541,9 +16789,6 @@
       <c r="U251" t="n">
         <v>0</v>
       </c>
-      <c r="V251" t="n">
-        <v>250</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -17609,9 +16854,6 @@
       <c r="U252" t="n">
         <v>1</v>
       </c>
-      <c r="V252" t="n">
-        <v>251</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -17677,9 +16919,6 @@
       <c r="U253" t="n">
         <v>1</v>
       </c>
-      <c r="V253" t="n">
-        <v>252</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -17745,9 +16984,6 @@
       <c r="U254" t="n">
         <v>0</v>
       </c>
-      <c r="V254" t="n">
-        <v>253</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -17813,9 +17049,6 @@
       <c r="U255" t="n">
         <v>1</v>
       </c>
-      <c r="V255" t="n">
-        <v>254</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -17881,9 +17114,6 @@
       <c r="U256" t="n">
         <v>0</v>
       </c>
-      <c r="V256" t="n">
-        <v>255</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -17949,9 +17179,6 @@
       <c r="U257" t="n">
         <v>0</v>
       </c>
-      <c r="V257" t="n">
-        <v>256</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -18017,9 +17244,6 @@
       <c r="U258" t="n">
         <v>0</v>
       </c>
-      <c r="V258" t="n">
-        <v>257</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -18085,9 +17309,6 @@
       <c r="U259" t="n">
         <v>0</v>
       </c>
-      <c r="V259" t="n">
-        <v>258</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -18153,9 +17374,6 @@
       <c r="U260" t="n">
         <v>1</v>
       </c>
-      <c r="V260" t="n">
-        <v>259</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -18221,9 +17439,6 @@
       <c r="U261" t="n">
         <v>1</v>
       </c>
-      <c r="V261" t="n">
-        <v>260</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -18289,9 +17504,6 @@
       <c r="U262" t="n">
         <v>0</v>
       </c>
-      <c r="V262" t="n">
-        <v>261</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -18357,9 +17569,6 @@
       <c r="U263" t="n">
         <v>1</v>
       </c>
-      <c r="V263" t="n">
-        <v>262</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -18425,9 +17634,6 @@
       <c r="U264" t="n">
         <v>1</v>
       </c>
-      <c r="V264" t="n">
-        <v>263</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -18493,9 +17699,6 @@
       <c r="U265" t="n">
         <v>1</v>
       </c>
-      <c r="V265" t="n">
-        <v>264</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -18561,9 +17764,6 @@
       <c r="U266" t="n">
         <v>1</v>
       </c>
-      <c r="V266" t="n">
-        <v>265</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -18629,9 +17829,6 @@
       <c r="U267" t="n">
         <v>1</v>
       </c>
-      <c r="V267" t="n">
-        <v>266</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -18697,9 +17894,6 @@
       <c r="U268" t="n">
         <v>0</v>
       </c>
-      <c r="V268" t="n">
-        <v>267</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -18765,9 +17959,6 @@
       <c r="U269" t="n">
         <v>1</v>
       </c>
-      <c r="V269" t="n">
-        <v>268</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -18833,9 +18024,6 @@
       <c r="U270" t="n">
         <v>1</v>
       </c>
-      <c r="V270" t="n">
-        <v>269</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -18901,9 +18089,6 @@
       <c r="U271" t="n">
         <v>1</v>
       </c>
-      <c r="V271" t="n">
-        <v>270</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -18969,9 +18154,6 @@
       <c r="U272" t="n">
         <v>1</v>
       </c>
-      <c r="V272" t="n">
-        <v>271</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -19037,9 +18219,6 @@
       <c r="U273" t="n">
         <v>1</v>
       </c>
-      <c r="V273" t="n">
-        <v>272</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -19105,9 +18284,6 @@
       <c r="U274" t="n">
         <v>1</v>
       </c>
-      <c r="V274" t="n">
-        <v>273</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -19173,9 +18349,6 @@
       <c r="U275" t="n">
         <v>1</v>
       </c>
-      <c r="V275" t="n">
-        <v>274</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -19241,9 +18414,6 @@
       <c r="U276" t="n">
         <v>1</v>
       </c>
-      <c r="V276" t="n">
-        <v>275</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -19309,9 +18479,6 @@
       <c r="U277" t="n">
         <v>1</v>
       </c>
-      <c r="V277" t="n">
-        <v>276</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -19377,9 +18544,6 @@
       <c r="U278" t="n">
         <v>1</v>
       </c>
-      <c r="V278" t="n">
-        <v>277</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -19445,9 +18609,6 @@
       <c r="U279" t="n">
         <v>1</v>
       </c>
-      <c r="V279" t="n">
-        <v>278</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -19513,9 +18674,6 @@
       <c r="U280" t="n">
         <v>0</v>
       </c>
-      <c r="V280" t="n">
-        <v>279</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -19581,9 +18739,6 @@
       <c r="U281" t="n">
         <v>1</v>
       </c>
-      <c r="V281" t="n">
-        <v>280</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -19649,9 +18804,6 @@
       <c r="U282" t="n">
         <v>1</v>
       </c>
-      <c r="V282" t="n">
-        <v>281</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -19717,9 +18869,6 @@
       <c r="U283" t="n">
         <v>1</v>
       </c>
-      <c r="V283" t="n">
-        <v>282</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -19785,9 +18934,6 @@
       <c r="U284" t="n">
         <v>0</v>
       </c>
-      <c r="V284" t="n">
-        <v>283</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -19853,9 +18999,6 @@
       <c r="U285" t="n">
         <v>1</v>
       </c>
-      <c r="V285" t="n">
-        <v>284</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -19921,9 +19064,6 @@
       <c r="U286" t="n">
         <v>0</v>
       </c>
-      <c r="V286" t="n">
-        <v>285</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -19989,9 +19129,6 @@
       <c r="U287" t="n">
         <v>1</v>
       </c>
-      <c r="V287" t="n">
-        <v>286</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -20057,9 +19194,6 @@
       <c r="U288" t="n">
         <v>1</v>
       </c>
-      <c r="V288" t="n">
-        <v>287</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -20125,9 +19259,6 @@
       <c r="U289" t="n">
         <v>1</v>
       </c>
-      <c r="V289" t="n">
-        <v>288</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -20193,9 +19324,6 @@
       <c r="U290" t="n">
         <v>1</v>
       </c>
-      <c r="V290" t="n">
-        <v>289</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -20261,9 +19389,6 @@
       <c r="U291" t="n">
         <v>0</v>
       </c>
-      <c r="V291" t="n">
-        <v>290</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -20329,9 +19454,6 @@
       <c r="U292" t="n">
         <v>1</v>
       </c>
-      <c r="V292" t="n">
-        <v>291</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -20397,9 +19519,6 @@
       <c r="U293" t="n">
         <v>0</v>
       </c>
-      <c r="V293" t="n">
-        <v>292</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -20465,9 +19584,6 @@
       <c r="U294" t="n">
         <v>1</v>
       </c>
-      <c r="V294" t="n">
-        <v>293</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -20533,9 +19649,6 @@
       <c r="U295" t="n">
         <v>1</v>
       </c>
-      <c r="V295" t="n">
-        <v>294</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -20601,9 +19714,6 @@
       <c r="U296" t="n">
         <v>1</v>
       </c>
-      <c r="V296" t="n">
-        <v>295</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -20669,9 +19779,6 @@
       <c r="U297" t="n">
         <v>1</v>
       </c>
-      <c r="V297" t="n">
-        <v>296</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -20737,9 +19844,6 @@
       <c r="U298" t="n">
         <v>0</v>
       </c>
-      <c r="V298" t="n">
-        <v>297</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -20805,9 +19909,6 @@
       <c r="U299" t="n">
         <v>0</v>
       </c>
-      <c r="V299" t="n">
-        <v>298</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -20873,9 +19974,6 @@
       <c r="U300" t="n">
         <v>0</v>
       </c>
-      <c r="V300" t="n">
-        <v>299</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -20941,9 +20039,6 @@
       <c r="U301" t="n">
         <v>1</v>
       </c>
-      <c r="V301" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -21009,9 +20104,6 @@
       <c r="U302" t="n">
         <v>1</v>
       </c>
-      <c r="V302" t="n">
-        <v>301</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -21077,9 +20169,6 @@
       <c r="U303" t="n">
         <v>1</v>
       </c>
-      <c r="V303" t="n">
-        <v>302</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -21145,9 +20234,6 @@
       <c r="U304" t="n">
         <v>1</v>
       </c>
-      <c r="V304" t="n">
-        <v>303</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -21213,9 +20299,6 @@
       <c r="U305" t="n">
         <v>0</v>
       </c>
-      <c r="V305" t="n">
-        <v>304</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -21281,9 +20364,6 @@
       <c r="U306" t="n">
         <v>1</v>
       </c>
-      <c r="V306" t="n">
-        <v>305</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -21349,9 +20429,6 @@
       <c r="U307" t="n">
         <v>0</v>
       </c>
-      <c r="V307" t="n">
-        <v>306</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -21417,9 +20494,6 @@
       <c r="U308" t="n">
         <v>0</v>
       </c>
-      <c r="V308" t="n">
-        <v>307</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -21485,9 +20559,6 @@
       <c r="U309" t="n">
         <v>1</v>
       </c>
-      <c r="V309" t="n">
-        <v>308</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -21553,9 +20624,6 @@
       <c r="U310" t="n">
         <v>1</v>
       </c>
-      <c r="V310" t="n">
-        <v>309</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -21621,9 +20689,6 @@
       <c r="U311" t="n">
         <v>1</v>
       </c>
-      <c r="V311" t="n">
-        <v>310</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -21689,9 +20754,6 @@
       <c r="U312" t="n">
         <v>1</v>
       </c>
-      <c r="V312" t="n">
-        <v>311</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -21757,9 +20819,6 @@
       <c r="U313" t="n">
         <v>1</v>
       </c>
-      <c r="V313" t="n">
-        <v>312</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -21825,9 +20884,6 @@
       <c r="U314" t="n">
         <v>0</v>
       </c>
-      <c r="V314" t="n">
-        <v>313</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -21893,9 +20949,6 @@
       <c r="U315" t="n">
         <v>1</v>
       </c>
-      <c r="V315" t="n">
-        <v>314</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -21961,9 +21014,6 @@
       <c r="U316" t="n">
         <v>1</v>
       </c>
-      <c r="V316" t="n">
-        <v>315</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -22029,9 +21079,6 @@
       <c r="U317" t="n">
         <v>1</v>
       </c>
-      <c r="V317" t="n">
-        <v>316</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -22097,9 +21144,6 @@
       <c r="U318" t="n">
         <v>1</v>
       </c>
-      <c r="V318" t="n">
-        <v>317</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -22165,9 +21209,6 @@
       <c r="U319" t="n">
         <v>0</v>
       </c>
-      <c r="V319" t="n">
-        <v>318</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -22233,9 +21274,6 @@
       <c r="U320" t="n">
         <v>1</v>
       </c>
-      <c r="V320" t="n">
-        <v>319</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -22301,9 +21339,6 @@
       <c r="U321" t="n">
         <v>1</v>
       </c>
-      <c r="V321" t="n">
-        <v>320</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -22369,9 +21404,6 @@
       <c r="U322" t="n">
         <v>1</v>
       </c>
-      <c r="V322" t="n">
-        <v>321</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -22437,9 +21469,6 @@
       <c r="U323" t="n">
         <v>1</v>
       </c>
-      <c r="V323" t="n">
-        <v>322</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -22505,9 +21534,6 @@
       <c r="U324" t="n">
         <v>1</v>
       </c>
-      <c r="V324" t="n">
-        <v>323</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -22573,9 +21599,6 @@
       <c r="U325" t="n">
         <v>0</v>
       </c>
-      <c r="V325" t="n">
-        <v>324</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -22641,9 +21664,6 @@
       <c r="U326" t="n">
         <v>1</v>
       </c>
-      <c r="V326" t="n">
-        <v>325</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -22709,9 +21729,6 @@
       <c r="U327" t="n">
         <v>1</v>
       </c>
-      <c r="V327" t="n">
-        <v>326</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -22777,9 +21794,6 @@
       <c r="U328" t="n">
         <v>0</v>
       </c>
-      <c r="V328" t="n">
-        <v>327</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -22845,9 +21859,6 @@
       <c r="U329" t="n">
         <v>1</v>
       </c>
-      <c r="V329" t="n">
-        <v>328</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -22913,9 +21924,6 @@
       <c r="U330" t="n">
         <v>1</v>
       </c>
-      <c r="V330" t="n">
-        <v>329</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -22981,9 +21989,6 @@
       <c r="U331" t="n">
         <v>1</v>
       </c>
-      <c r="V331" t="n">
-        <v>330</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -23049,9 +22054,6 @@
       <c r="U332" t="n">
         <v>1</v>
       </c>
-      <c r="V332" t="n">
-        <v>331</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -23117,9 +22119,6 @@
       <c r="U333" t="n">
         <v>1</v>
       </c>
-      <c r="V333" t="n">
-        <v>332</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -23185,9 +22184,6 @@
       <c r="U334" t="n">
         <v>1</v>
       </c>
-      <c r="V334" t="n">
-        <v>333</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -23253,9 +22249,6 @@
       <c r="U335" t="n">
         <v>1</v>
       </c>
-      <c r="V335" t="n">
-        <v>334</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -23321,9 +22314,6 @@
       <c r="U336" t="n">
         <v>1</v>
       </c>
-      <c r="V336" t="n">
-        <v>335</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -23389,9 +22379,6 @@
       <c r="U337" t="n">
         <v>1</v>
       </c>
-      <c r="V337" t="n">
-        <v>336</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -23457,9 +22444,6 @@
       <c r="U338" t="n">
         <v>0</v>
       </c>
-      <c r="V338" t="n">
-        <v>337</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -23525,9 +22509,6 @@
       <c r="U339" t="n">
         <v>1</v>
       </c>
-      <c r="V339" t="n">
-        <v>338</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -23593,9 +22574,6 @@
       <c r="U340" t="n">
         <v>0</v>
       </c>
-      <c r="V340" t="n">
-        <v>339</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -23661,9 +22639,6 @@
       <c r="U341" t="n">
         <v>0</v>
       </c>
-      <c r="V341" t="n">
-        <v>340</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -23729,9 +22704,6 @@
       <c r="U342" t="n">
         <v>1</v>
       </c>
-      <c r="V342" t="n">
-        <v>341</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -23797,9 +22769,6 @@
       <c r="U343" t="n">
         <v>1</v>
       </c>
-      <c r="V343" t="n">
-        <v>342</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -23865,9 +22834,6 @@
       <c r="U344" t="n">
         <v>1</v>
       </c>
-      <c r="V344" t="n">
-        <v>343</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -23933,9 +22899,6 @@
       <c r="U345" t="n">
         <v>1</v>
       </c>
-      <c r="V345" t="n">
-        <v>344</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -24001,9 +22964,6 @@
       <c r="U346" t="n">
         <v>0</v>
       </c>
-      <c r="V346" t="n">
-        <v>345</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -24069,9 +23029,6 @@
       <c r="U347" t="n">
         <v>1</v>
       </c>
-      <c r="V347" t="n">
-        <v>346</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -24137,9 +23094,6 @@
       <c r="U348" t="n">
         <v>1</v>
       </c>
-      <c r="V348" t="n">
-        <v>347</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -24205,9 +23159,6 @@
       <c r="U349" t="n">
         <v>1</v>
       </c>
-      <c r="V349" t="n">
-        <v>348</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -24273,9 +23224,6 @@
       <c r="U350" t="n">
         <v>1</v>
       </c>
-      <c r="V350" t="n">
-        <v>349</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -24341,9 +23289,6 @@
       <c r="U351" t="n">
         <v>0</v>
       </c>
-      <c r="V351" t="n">
-        <v>350</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -24409,9 +23354,6 @@
       <c r="U352" t="n">
         <v>1</v>
       </c>
-      <c r="V352" t="n">
-        <v>351</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -24477,9 +23419,6 @@
       <c r="U353" t="n">
         <v>0</v>
       </c>
-      <c r="V353" t="n">
-        <v>352</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -24545,9 +23484,6 @@
       <c r="U354" t="n">
         <v>1</v>
       </c>
-      <c r="V354" t="n">
-        <v>353</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -24613,9 +23549,6 @@
       <c r="U355" t="n">
         <v>1</v>
       </c>
-      <c r="V355" t="n">
-        <v>354</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -24681,9 +23614,6 @@
       <c r="U356" t="n">
         <v>1</v>
       </c>
-      <c r="V356" t="n">
-        <v>355</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -24749,9 +23679,6 @@
       <c r="U357" t="n">
         <v>0</v>
       </c>
-      <c r="V357" t="n">
-        <v>356</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -24817,9 +23744,6 @@
       <c r="U358" t="n">
         <v>0</v>
       </c>
-      <c r="V358" t="n">
-        <v>357</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -24885,9 +23809,6 @@
       <c r="U359" t="n">
         <v>1</v>
       </c>
-      <c r="V359" t="n">
-        <v>358</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -24953,9 +23874,6 @@
       <c r="U360" t="n">
         <v>0</v>
       </c>
-      <c r="V360" t="n">
-        <v>359</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -25021,9 +23939,6 @@
       <c r="U361" t="n">
         <v>1</v>
       </c>
-      <c r="V361" t="n">
-        <v>360</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -25089,9 +24004,6 @@
       <c r="U362" t="n">
         <v>1</v>
       </c>
-      <c r="V362" t="n">
-        <v>361</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -25157,9 +24069,6 @@
       <c r="U363" t="n">
         <v>1</v>
       </c>
-      <c r="V363" t="n">
-        <v>362</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -25225,9 +24134,6 @@
       <c r="U364" t="n">
         <v>1</v>
       </c>
-      <c r="V364" t="n">
-        <v>363</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -25293,9 +24199,6 @@
       <c r="U365" t="n">
         <v>0</v>
       </c>
-      <c r="V365" t="n">
-        <v>364</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -25361,9 +24264,6 @@
       <c r="U366" t="n">
         <v>0</v>
       </c>
-      <c r="V366" t="n">
-        <v>365</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -25429,9 +24329,6 @@
       <c r="U367" t="n">
         <v>0</v>
       </c>
-      <c r="V367" t="n">
-        <v>366</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -25497,9 +24394,6 @@
       <c r="U368" t="n">
         <v>1</v>
       </c>
-      <c r="V368" t="n">
-        <v>367</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -25565,9 +24459,6 @@
       <c r="U369" t="n">
         <v>0</v>
       </c>
-      <c r="V369" t="n">
-        <v>368</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -25633,9 +24524,6 @@
       <c r="U370" t="n">
         <v>1</v>
       </c>
-      <c r="V370" t="n">
-        <v>369</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -25701,9 +24589,6 @@
       <c r="U371" t="n">
         <v>1</v>
       </c>
-      <c r="V371" t="n">
-        <v>370</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -25769,9 +24654,6 @@
       <c r="U372" t="n">
         <v>1</v>
       </c>
-      <c r="V372" t="n">
-        <v>371</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -25837,9 +24719,6 @@
       <c r="U373" t="n">
         <v>0</v>
       </c>
-      <c r="V373" t="n">
-        <v>372</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -25905,9 +24784,6 @@
       <c r="U374" t="n">
         <v>1</v>
       </c>
-      <c r="V374" t="n">
-        <v>373</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -25973,9 +24849,6 @@
       <c r="U375" t="n">
         <v>1</v>
       </c>
-      <c r="V375" t="n">
-        <v>374</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -26041,9 +24914,6 @@
       <c r="U376" t="n">
         <v>1</v>
       </c>
-      <c r="V376" t="n">
-        <v>375</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -26109,9 +24979,6 @@
       <c r="U377" t="n">
         <v>1</v>
       </c>
-      <c r="V377" t="n">
-        <v>376</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -26177,9 +25044,6 @@
       <c r="U378" t="n">
         <v>0</v>
       </c>
-      <c r="V378" t="n">
-        <v>377</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -26245,9 +25109,6 @@
       <c r="U379" t="n">
         <v>1</v>
       </c>
-      <c r="V379" t="n">
-        <v>378</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -26313,9 +25174,6 @@
       <c r="U380" t="n">
         <v>1</v>
       </c>
-      <c r="V380" t="n">
-        <v>379</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -26381,9 +25239,6 @@
       <c r="U381" t="n">
         <v>1</v>
       </c>
-      <c r="V381" t="n">
-        <v>380</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -26449,9 +25304,6 @@
       <c r="U382" t="n">
         <v>1</v>
       </c>
-      <c r="V382" t="n">
-        <v>381</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -26517,9 +25369,6 @@
       <c r="U383" t="n">
         <v>1</v>
       </c>
-      <c r="V383" t="n">
-        <v>382</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -26585,9 +25434,6 @@
       <c r="U384" t="n">
         <v>0</v>
       </c>
-      <c r="V384" t="n">
-        <v>383</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -26653,9 +25499,6 @@
       <c r="U385" t="n">
         <v>1</v>
       </c>
-      <c r="V385" t="n">
-        <v>384</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -26721,9 +25564,6 @@
       <c r="U386" t="n">
         <v>1</v>
       </c>
-      <c r="V386" t="n">
-        <v>385</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -26789,9 +25629,6 @@
       <c r="U387" t="n">
         <v>0</v>
       </c>
-      <c r="V387" t="n">
-        <v>386</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -26857,9 +25694,6 @@
       <c r="U388" t="n">
         <v>1</v>
       </c>
-      <c r="V388" t="n">
-        <v>387</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -26925,9 +25759,6 @@
       <c r="U389" t="n">
         <v>1</v>
       </c>
-      <c r="V389" t="n">
-        <v>388</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -26993,9 +25824,6 @@
       <c r="U390" t="n">
         <v>1</v>
       </c>
-      <c r="V390" t="n">
-        <v>389</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -27061,9 +25889,6 @@
       <c r="U391" t="n">
         <v>1</v>
       </c>
-      <c r="V391" t="n">
-        <v>390</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -27129,9 +25954,6 @@
       <c r="U392" t="n">
         <v>1</v>
       </c>
-      <c r="V392" t="n">
-        <v>391</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -27197,9 +26019,6 @@
       <c r="U393" t="n">
         <v>1</v>
       </c>
-      <c r="V393" t="n">
-        <v>392</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -27265,9 +26084,6 @@
       <c r="U394" t="n">
         <v>1</v>
       </c>
-      <c r="V394" t="n">
-        <v>393</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -27333,9 +26149,6 @@
       <c r="U395" t="n">
         <v>1</v>
       </c>
-      <c r="V395" t="n">
-        <v>394</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -27401,9 +26214,6 @@
       <c r="U396" t="n">
         <v>0</v>
       </c>
-      <c r="V396" t="n">
-        <v>395</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -27469,9 +26279,6 @@
       <c r="U397" t="n">
         <v>1</v>
       </c>
-      <c r="V397" t="n">
-        <v>396</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -27537,9 +26344,6 @@
       <c r="U398" t="n">
         <v>1</v>
       </c>
-      <c r="V398" t="n">
-        <v>397</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -27605,9 +26409,6 @@
       <c r="U399" t="n">
         <v>0</v>
       </c>
-      <c r="V399" t="n">
-        <v>398</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -27673,9 +26474,6 @@
       <c r="U400" t="n">
         <v>0</v>
       </c>
-      <c r="V400" t="n">
-        <v>399</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -27741,9 +26539,6 @@
       <c r="U401" t="n">
         <v>0</v>
       </c>
-      <c r="V401" t="n">
-        <v>400</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -27809,9 +26604,6 @@
       <c r="U402" t="n">
         <v>1</v>
       </c>
-      <c r="V402" t="n">
-        <v>401</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -27877,9 +26669,6 @@
       <c r="U403" t="n">
         <v>1</v>
       </c>
-      <c r="V403" t="n">
-        <v>402</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -27945,9 +26734,6 @@
       <c r="U404" t="n">
         <v>0</v>
       </c>
-      <c r="V404" t="n">
-        <v>403</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -28013,9 +26799,6 @@
       <c r="U405" t="n">
         <v>1</v>
       </c>
-      <c r="V405" t="n">
-        <v>404</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -28081,9 +26864,6 @@
       <c r="U406" t="n">
         <v>1</v>
       </c>
-      <c r="V406" t="n">
-        <v>405</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -28149,9 +26929,6 @@
       <c r="U407" t="n">
         <v>1</v>
       </c>
-      <c r="V407" t="n">
-        <v>406</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -28217,9 +26994,6 @@
       <c r="U408" t="n">
         <v>0</v>
       </c>
-      <c r="V408" t="n">
-        <v>407</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -28285,9 +27059,6 @@
       <c r="U409" t="n">
         <v>0</v>
       </c>
-      <c r="V409" t="n">
-        <v>408</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -28353,9 +27124,6 @@
       <c r="U410" t="n">
         <v>0</v>
       </c>
-      <c r="V410" t="n">
-        <v>409</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -28421,9 +27189,6 @@
       <c r="U411" t="n">
         <v>1</v>
       </c>
-      <c r="V411" t="n">
-        <v>410</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -28489,9 +27254,6 @@
       <c r="U412" t="n">
         <v>0</v>
       </c>
-      <c r="V412" t="n">
-        <v>411</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -28557,9 +27319,6 @@
       <c r="U413" t="n">
         <v>1</v>
       </c>
-      <c r="V413" t="n">
-        <v>412</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -28625,9 +27384,6 @@
       <c r="U414" t="n">
         <v>0</v>
       </c>
-      <c r="V414" t="n">
-        <v>413</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -28693,9 +27449,6 @@
       <c r="U415" t="n">
         <v>1</v>
       </c>
-      <c r="V415" t="n">
-        <v>414</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -28761,9 +27514,6 @@
       <c r="U416" t="n">
         <v>0</v>
       </c>
-      <c r="V416" t="n">
-        <v>415</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -28829,9 +27579,6 @@
       <c r="U417" t="n">
         <v>0</v>
       </c>
-      <c r="V417" t="n">
-        <v>416</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -28897,9 +27644,6 @@
       <c r="U418" t="n">
         <v>1</v>
       </c>
-      <c r="V418" t="n">
-        <v>417</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -28965,9 +27709,6 @@
       <c r="U419" t="n">
         <v>1</v>
       </c>
-      <c r="V419" t="n">
-        <v>418</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -29033,9 +27774,6 @@
       <c r="U420" t="n">
         <v>1</v>
       </c>
-      <c r="V420" t="n">
-        <v>419</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -29101,9 +27839,6 @@
       <c r="U421" t="n">
         <v>0</v>
       </c>
-      <c r="V421" t="n">
-        <v>420</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -29169,9 +27904,6 @@
       <c r="U422" t="n">
         <v>1</v>
       </c>
-      <c r="V422" t="n">
-        <v>421</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -29237,9 +27969,6 @@
       <c r="U423" t="n">
         <v>0</v>
       </c>
-      <c r="V423" t="n">
-        <v>422</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -29305,9 +28034,6 @@
       <c r="U424" t="n">
         <v>1</v>
       </c>
-      <c r="V424" t="n">
-        <v>423</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -29373,9 +28099,6 @@
       <c r="U425" t="n">
         <v>1</v>
       </c>
-      <c r="V425" t="n">
-        <v>424</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -29441,9 +28164,6 @@
       <c r="U426" t="n">
         <v>0</v>
       </c>
-      <c r="V426" t="n">
-        <v>425</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -29509,9 +28229,6 @@
       <c r="U427" t="n">
         <v>1</v>
       </c>
-      <c r="V427" t="n">
-        <v>426</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -29577,9 +28294,6 @@
       <c r="U428" t="n">
         <v>1</v>
       </c>
-      <c r="V428" t="n">
-        <v>427</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -29645,9 +28359,6 @@
       <c r="U429" t="n">
         <v>1</v>
       </c>
-      <c r="V429" t="n">
-        <v>428</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -29713,9 +28424,6 @@
       <c r="U430" t="n">
         <v>1</v>
       </c>
-      <c r="V430" t="n">
-        <v>429</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -29781,9 +28489,6 @@
       <c r="U431" t="n">
         <v>0</v>
       </c>
-      <c r="V431" t="n">
-        <v>430</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -29849,9 +28554,6 @@
       <c r="U432" t="n">
         <v>1</v>
       </c>
-      <c r="V432" t="n">
-        <v>431</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -29917,9 +28619,6 @@
       <c r="U433" t="n">
         <v>1</v>
       </c>
-      <c r="V433" t="n">
-        <v>432</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -29985,9 +28684,6 @@
       <c r="U434" t="n">
         <v>1</v>
       </c>
-      <c r="V434" t="n">
-        <v>433</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -30053,9 +28749,6 @@
       <c r="U435" t="n">
         <v>1</v>
       </c>
-      <c r="V435" t="n">
-        <v>434</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -30121,9 +28814,6 @@
       <c r="U436" t="n">
         <v>1</v>
       </c>
-      <c r="V436" t="n">
-        <v>435</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -30189,9 +28879,6 @@
       <c r="U437" t="n">
         <v>0</v>
       </c>
-      <c r="V437" t="n">
-        <v>436</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -30257,9 +28944,6 @@
       <c r="U438" t="n">
         <v>1</v>
       </c>
-      <c r="V438" t="n">
-        <v>437</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -30325,9 +29009,6 @@
       <c r="U439" t="n">
         <v>1</v>
       </c>
-      <c r="V439" t="n">
-        <v>438</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -30393,9 +29074,6 @@
       <c r="U440" t="n">
         <v>1</v>
       </c>
-      <c r="V440" t="n">
-        <v>439</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -30461,9 +29139,6 @@
       <c r="U441" t="n">
         <v>1</v>
       </c>
-      <c r="V441" t="n">
-        <v>440</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -30529,9 +29204,6 @@
       <c r="U442" t="n">
         <v>1</v>
       </c>
-      <c r="V442" t="n">
-        <v>441</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -30597,9 +29269,6 @@
       <c r="U443" t="n">
         <v>1</v>
       </c>
-      <c r="V443" t="n">
-        <v>442</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -30665,9 +29334,6 @@
       <c r="U444" t="n">
         <v>1</v>
       </c>
-      <c r="V444" t="n">
-        <v>443</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -30733,9 +29399,6 @@
       <c r="U445" t="n">
         <v>1</v>
       </c>
-      <c r="V445" t="n">
-        <v>444</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -30801,9 +29464,6 @@
       <c r="U446" t="n">
         <v>0</v>
       </c>
-      <c r="V446" t="n">
-        <v>445</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -30869,9 +29529,6 @@
       <c r="U447" t="n">
         <v>0</v>
       </c>
-      <c r="V447" t="n">
-        <v>446</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -30937,9 +29594,6 @@
       <c r="U448" t="n">
         <v>0</v>
       </c>
-      <c r="V448" t="n">
-        <v>447</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -31005,9 +29659,6 @@
       <c r="U449" t="n">
         <v>0</v>
       </c>
-      <c r="V449" t="n">
-        <v>448</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -31073,9 +29724,6 @@
       <c r="U450" t="n">
         <v>1</v>
       </c>
-      <c r="V450" t="n">
-        <v>449</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -31141,9 +29789,6 @@
       <c r="U451" t="n">
         <v>0</v>
       </c>
-      <c r="V451" t="n">
-        <v>450</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -31209,9 +29854,6 @@
       <c r="U452" t="n">
         <v>1</v>
       </c>
-      <c r="V452" t="n">
-        <v>451</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -31277,9 +29919,6 @@
       <c r="U453" t="n">
         <v>1</v>
       </c>
-      <c r="V453" t="n">
-        <v>452</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -31345,9 +29984,6 @@
       <c r="U454" t="n">
         <v>1</v>
       </c>
-      <c r="V454" t="n">
-        <v>453</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -31413,9 +30049,6 @@
       <c r="U455" t="n">
         <v>1</v>
       </c>
-      <c r="V455" t="n">
-        <v>454</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -31481,9 +30114,6 @@
       <c r="U456" t="n">
         <v>0</v>
       </c>
-      <c r="V456" t="n">
-        <v>455</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -31549,9 +30179,6 @@
       <c r="U457" t="n">
         <v>1</v>
       </c>
-      <c r="V457" t="n">
-        <v>456</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -31617,9 +30244,6 @@
       <c r="U458" t="n">
         <v>0</v>
       </c>
-      <c r="V458" t="n">
-        <v>457</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -31685,9 +30309,6 @@
       <c r="U459" t="n">
         <v>1</v>
       </c>
-      <c r="V459" t="n">
-        <v>458</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -31753,9 +30374,6 @@
       <c r="U460" t="n">
         <v>1</v>
       </c>
-      <c r="V460" t="n">
-        <v>459</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -31821,9 +30439,6 @@
       <c r="U461" t="n">
         <v>1</v>
       </c>
-      <c r="V461" t="n">
-        <v>460</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -31889,9 +30504,6 @@
       <c r="U462" t="n">
         <v>1</v>
       </c>
-      <c r="V462" t="n">
-        <v>461</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -31957,9 +30569,6 @@
       <c r="U463" t="n">
         <v>0</v>
       </c>
-      <c r="V463" t="n">
-        <v>462</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -32025,9 +30634,6 @@
       <c r="U464" t="n">
         <v>1</v>
       </c>
-      <c r="V464" t="n">
-        <v>463</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -32093,9 +30699,6 @@
       <c r="U465" t="n">
         <v>0</v>
       </c>
-      <c r="V465" t="n">
-        <v>464</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -32161,9 +30764,6 @@
       <c r="U466" t="n">
         <v>1</v>
       </c>
-      <c r="V466" t="n">
-        <v>465</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -32229,9 +30829,6 @@
       <c r="U467" t="n">
         <v>1</v>
       </c>
-      <c r="V467" t="n">
-        <v>466</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -32297,9 +30894,6 @@
       <c r="U468" t="n">
         <v>0</v>
       </c>
-      <c r="V468" t="n">
-        <v>467</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -32365,9 +30959,6 @@
       <c r="U469" t="n">
         <v>1</v>
       </c>
-      <c r="V469" t="n">
-        <v>468</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -32433,9 +31024,6 @@
       <c r="U470" t="n">
         <v>0</v>
       </c>
-      <c r="V470" t="n">
-        <v>469</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -32501,9 +31089,6 @@
       <c r="U471" t="n">
         <v>1</v>
       </c>
-      <c r="V471" t="n">
-        <v>470</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -32569,9 +31154,6 @@
       <c r="U472" t="n">
         <v>1</v>
       </c>
-      <c r="V472" t="n">
-        <v>471</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -32637,9 +31219,6 @@
       <c r="U473" t="n">
         <v>1</v>
       </c>
-      <c r="V473" t="n">
-        <v>472</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -32705,9 +31284,6 @@
       <c r="U474" t="n">
         <v>1</v>
       </c>
-      <c r="V474" t="n">
-        <v>473</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -32773,9 +31349,6 @@
       <c r="U475" t="n">
         <v>1</v>
       </c>
-      <c r="V475" t="n">
-        <v>474</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -32841,9 +31414,6 @@
       <c r="U476" t="n">
         <v>0</v>
       </c>
-      <c r="V476" t="n">
-        <v>475</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -32909,9 +31479,6 @@
       <c r="U477" t="n">
         <v>1</v>
       </c>
-      <c r="V477" t="n">
-        <v>476</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -32977,9 +31544,6 @@
       <c r="U478" t="n">
         <v>0</v>
       </c>
-      <c r="V478" t="n">
-        <v>477</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -33045,9 +31609,6 @@
       <c r="U479" t="n">
         <v>1</v>
       </c>
-      <c r="V479" t="n">
-        <v>478</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -33113,9 +31674,6 @@
       <c r="U480" t="n">
         <v>1</v>
       </c>
-      <c r="V480" t="n">
-        <v>479</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -33181,9 +31739,6 @@
       <c r="U481" t="n">
         <v>1</v>
       </c>
-      <c r="V481" t="n">
-        <v>480</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -33249,9 +31804,6 @@
       <c r="U482" t="n">
         <v>1</v>
       </c>
-      <c r="V482" t="n">
-        <v>481</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -33317,9 +31869,6 @@
       <c r="U483" t="n">
         <v>1</v>
       </c>
-      <c r="V483" t="n">
-        <v>482</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -33385,9 +31934,6 @@
       <c r="U484" t="n">
         <v>1</v>
       </c>
-      <c r="V484" t="n">
-        <v>483</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -33453,9 +31999,6 @@
       <c r="U485" t="n">
         <v>0</v>
       </c>
-      <c r="V485" t="n">
-        <v>484</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -33521,9 +32064,6 @@
       <c r="U486" t="n">
         <v>0</v>
       </c>
-      <c r="V486" t="n">
-        <v>485</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -33589,9 +32129,6 @@
       <c r="U487" t="n">
         <v>1</v>
       </c>
-      <c r="V487" t="n">
-        <v>486</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -33657,9 +32194,6 @@
       <c r="U488" t="n">
         <v>0</v>
       </c>
-      <c r="V488" t="n">
-        <v>487</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -33725,9 +32259,6 @@
       <c r="U489" t="n">
         <v>1</v>
       </c>
-      <c r="V489" t="n">
-        <v>488</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -33793,9 +32324,6 @@
       <c r="U490" t="n">
         <v>1</v>
       </c>
-      <c r="V490" t="n">
-        <v>489</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -33861,9 +32389,6 @@
       <c r="U491" t="n">
         <v>1</v>
       </c>
-      <c r="V491" t="n">
-        <v>490</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -33929,9 +32454,6 @@
       <c r="U492" t="n">
         <v>1</v>
       </c>
-      <c r="V492" t="n">
-        <v>491</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -33997,9 +32519,6 @@
       <c r="U493" t="n">
         <v>0</v>
       </c>
-      <c r="V493" t="n">
-        <v>492</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -34065,9 +32584,6 @@
       <c r="U494" t="n">
         <v>1</v>
       </c>
-      <c r="V494" t="n">
-        <v>493</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -34133,9 +32649,6 @@
       <c r="U495" t="n">
         <v>1</v>
       </c>
-      <c r="V495" t="n">
-        <v>494</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -34201,9 +32714,6 @@
       <c r="U496" t="n">
         <v>1</v>
       </c>
-      <c r="V496" t="n">
-        <v>495</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -34269,9 +32779,6 @@
       <c r="U497" t="n">
         <v>1</v>
       </c>
-      <c r="V497" t="n">
-        <v>496</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -34337,9 +32844,6 @@
       <c r="U498" t="n">
         <v>0</v>
       </c>
-      <c r="V498" t="n">
-        <v>497</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -34405,9 +32909,6 @@
       <c r="U499" t="n">
         <v>1</v>
       </c>
-      <c r="V499" t="n">
-        <v>498</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -34473,9 +32974,6 @@
       <c r="U500" t="n">
         <v>1</v>
       </c>
-      <c r="V500" t="n">
-        <v>499</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -34541,9 +33039,6 @@
       <c r="U501" t="n">
         <v>1</v>
       </c>
-      <c r="V501" t="n">
-        <v>500</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -34609,9 +33104,6 @@
       <c r="U502" t="n">
         <v>0</v>
       </c>
-      <c r="V502" t="n">
-        <v>501</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -34677,9 +33169,6 @@
       <c r="U503" t="n">
         <v>1</v>
       </c>
-      <c r="V503" t="n">
-        <v>502</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -34745,9 +33234,6 @@
       <c r="U504" t="n">
         <v>1</v>
       </c>
-      <c r="V504" t="n">
-        <v>503</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -34813,9 +33299,6 @@
       <c r="U505" t="n">
         <v>1</v>
       </c>
-      <c r="V505" t="n">
-        <v>504</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -34881,9 +33364,6 @@
       <c r="U506" t="n">
         <v>0</v>
       </c>
-      <c r="V506" t="n">
-        <v>505</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -34949,9 +33429,6 @@
       <c r="U507" t="n">
         <v>1</v>
       </c>
-      <c r="V507" t="n">
-        <v>506</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -35017,9 +33494,6 @@
       <c r="U508" t="n">
         <v>1</v>
       </c>
-      <c r="V508" t="n">
-        <v>507</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -35085,9 +33559,6 @@
       <c r="U509" t="n">
         <v>0</v>
       </c>
-      <c r="V509" t="n">
-        <v>508</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -35153,9 +33624,6 @@
       <c r="U510" t="n">
         <v>1</v>
       </c>
-      <c r="V510" t="n">
-        <v>509</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -35221,9 +33689,6 @@
       <c r="U511" t="n">
         <v>1</v>
       </c>
-      <c r="V511" t="n">
-        <v>510</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -35289,9 +33754,6 @@
       <c r="U512" t="n">
         <v>0</v>
       </c>
-      <c r="V512" t="n">
-        <v>511</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -35357,9 +33819,6 @@
       <c r="U513" t="n">
         <v>0</v>
       </c>
-      <c r="V513" t="n">
-        <v>512</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -35425,9 +33884,6 @@
       <c r="U514" t="n">
         <v>1</v>
       </c>
-      <c r="V514" t="n">
-        <v>513</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -35493,9 +33949,6 @@
       <c r="U515" t="n">
         <v>1</v>
       </c>
-      <c r="V515" t="n">
-        <v>514</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -35561,9 +34014,6 @@
       <c r="U516" t="n">
         <v>0</v>
       </c>
-      <c r="V516" t="n">
-        <v>515</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -35629,9 +34079,6 @@
       <c r="U517" t="n">
         <v>0</v>
       </c>
-      <c r="V517" t="n">
-        <v>516</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -35697,9 +34144,6 @@
       <c r="U518" t="n">
         <v>0</v>
       </c>
-      <c r="V518" t="n">
-        <v>517</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -35765,9 +34209,6 @@
       <c r="U519" t="n">
         <v>1</v>
       </c>
-      <c r="V519" t="n">
-        <v>518</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -35833,9 +34274,6 @@
       <c r="U520" t="n">
         <v>1</v>
       </c>
-      <c r="V520" t="n">
-        <v>519</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -35901,9 +34339,6 @@
       <c r="U521" t="n">
         <v>1</v>
       </c>
-      <c r="V521" t="n">
-        <v>520</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -35969,9 +34404,6 @@
       <c r="U522" t="n">
         <v>1</v>
       </c>
-      <c r="V522" t="n">
-        <v>521</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -36037,9 +34469,6 @@
       <c r="U523" t="n">
         <v>0</v>
       </c>
-      <c r="V523" t="n">
-        <v>522</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -36105,9 +34534,6 @@
       <c r="U524" t="n">
         <v>1</v>
       </c>
-      <c r="V524" t="n">
-        <v>523</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -36173,9 +34599,6 @@
       <c r="U525" t="n">
         <v>1</v>
       </c>
-      <c r="V525" t="n">
-        <v>524</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -36241,9 +34664,6 @@
       <c r="U526" t="n">
         <v>1</v>
       </c>
-      <c r="V526" t="n">
-        <v>525</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -36309,9 +34729,6 @@
       <c r="U527" t="n">
         <v>1</v>
       </c>
-      <c r="V527" t="n">
-        <v>526</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -36377,9 +34794,6 @@
       <c r="U528" t="n">
         <v>1</v>
       </c>
-      <c r="V528" t="n">
-        <v>527</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -36445,9 +34859,6 @@
       <c r="U529" t="n">
         <v>1</v>
       </c>
-      <c r="V529" t="n">
-        <v>528</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -36513,9 +34924,6 @@
       <c r="U530" t="n">
         <v>1</v>
       </c>
-      <c r="V530" t="n">
-        <v>529</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -36581,9 +34989,6 @@
       <c r="U531" t="n">
         <v>0</v>
       </c>
-      <c r="V531" t="n">
-        <v>530</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -36649,9 +35054,6 @@
       <c r="U532" t="n">
         <v>0</v>
       </c>
-      <c r="V532" t="n">
-        <v>531</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -36717,9 +35119,6 @@
       <c r="U533" t="n">
         <v>1</v>
       </c>
-      <c r="V533" t="n">
-        <v>532</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -36785,9 +35184,6 @@
       <c r="U534" t="n">
         <v>1</v>
       </c>
-      <c r="V534" t="n">
-        <v>533</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -36853,9 +35249,6 @@
       <c r="U535" t="n">
         <v>1</v>
       </c>
-      <c r="V535" t="n">
-        <v>534</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -36921,9 +35314,6 @@
       <c r="U536" t="n">
         <v>1</v>
       </c>
-      <c r="V536" t="n">
-        <v>535</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -36989,9 +35379,6 @@
       <c r="U537" t="n">
         <v>0</v>
       </c>
-      <c r="V537" t="n">
-        <v>536</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -37057,9 +35444,6 @@
       <c r="U538" t="n">
         <v>1</v>
       </c>
-      <c r="V538" t="n">
-        <v>537</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -37125,9 +35509,6 @@
       <c r="U539" t="n">
         <v>1</v>
       </c>
-      <c r="V539" t="n">
-        <v>538</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -37193,9 +35574,6 @@
       <c r="U540" t="n">
         <v>0</v>
       </c>
-      <c r="V540" t="n">
-        <v>539</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -37261,9 +35639,6 @@
       <c r="U541" t="n">
         <v>1</v>
       </c>
-      <c r="V541" t="n">
-        <v>540</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -37329,9 +35704,6 @@
       <c r="U542" t="n">
         <v>1</v>
       </c>
-      <c r="V542" t="n">
-        <v>541</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -37397,9 +35769,6 @@
       <c r="U543" t="n">
         <v>1</v>
       </c>
-      <c r="V543" t="n">
-        <v>542</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -37465,9 +35834,6 @@
       <c r="U544" t="n">
         <v>1</v>
       </c>
-      <c r="V544" t="n">
-        <v>543</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -37533,9 +35899,6 @@
       <c r="U545" t="n">
         <v>0</v>
       </c>
-      <c r="V545" t="n">
-        <v>544</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -37601,9 +35964,6 @@
       <c r="U546" t="n">
         <v>1</v>
       </c>
-      <c r="V546" t="n">
-        <v>545</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -37669,9 +36029,6 @@
       <c r="U547" t="n">
         <v>0</v>
       </c>
-      <c r="V547" t="n">
-        <v>546</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -37737,9 +36094,6 @@
       <c r="U548" t="n">
         <v>1</v>
       </c>
-      <c r="V548" t="n">
-        <v>547</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -37805,9 +36159,6 @@
       <c r="U549" t="n">
         <v>0</v>
       </c>
-      <c r="V549" t="n">
-        <v>548</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -37873,9 +36224,6 @@
       <c r="U550" t="n">
         <v>1</v>
       </c>
-      <c r="V550" t="n">
-        <v>549</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -37941,9 +36289,6 @@
       <c r="U551" t="n">
         <v>1</v>
       </c>
-      <c r="V551" t="n">
-        <v>550</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -38009,9 +36354,6 @@
       <c r="U552" t="n">
         <v>0</v>
       </c>
-      <c r="V552" t="n">
-        <v>551</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -38077,9 +36419,6 @@
       <c r="U553" t="n">
         <v>0</v>
       </c>
-      <c r="V553" t="n">
-        <v>552</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -38145,9 +36484,6 @@
       <c r="U554" t="n">
         <v>1</v>
       </c>
-      <c r="V554" t="n">
-        <v>553</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -38213,9 +36549,6 @@
       <c r="U555" t="n">
         <v>1</v>
       </c>
-      <c r="V555" t="n">
-        <v>554</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -38281,9 +36614,6 @@
       <c r="U556" t="n">
         <v>1</v>
       </c>
-      <c r="V556" t="n">
-        <v>555</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -38349,9 +36679,6 @@
       <c r="U557" t="n">
         <v>1</v>
       </c>
-      <c r="V557" t="n">
-        <v>556</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -38417,9 +36744,6 @@
       <c r="U558" t="n">
         <v>1</v>
       </c>
-      <c r="V558" t="n">
-        <v>557</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -38485,9 +36809,6 @@
       <c r="U559" t="n">
         <v>1</v>
       </c>
-      <c r="V559" t="n">
-        <v>558</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -38553,9 +36874,6 @@
       <c r="U560" t="n">
         <v>1</v>
       </c>
-      <c r="V560" t="n">
-        <v>559</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -38621,9 +36939,6 @@
       <c r="U561" t="n">
         <v>1</v>
       </c>
-      <c r="V561" t="n">
-        <v>560</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -38689,9 +37004,6 @@
       <c r="U562" t="n">
         <v>1</v>
       </c>
-      <c r="V562" t="n">
-        <v>561</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -38757,9 +37069,6 @@
       <c r="U563" t="n">
         <v>0</v>
       </c>
-      <c r="V563" t="n">
-        <v>562</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -38825,9 +37134,6 @@
       <c r="U564" t="n">
         <v>1</v>
       </c>
-      <c r="V564" t="n">
-        <v>563</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -38893,9 +37199,6 @@
       <c r="U565" t="n">
         <v>1</v>
       </c>
-      <c r="V565" t="n">
-        <v>564</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -38961,9 +37264,6 @@
       <c r="U566" t="n">
         <v>0</v>
       </c>
-      <c r="V566" t="n">
-        <v>565</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -39029,9 +37329,6 @@
       <c r="U567" t="n">
         <v>0</v>
       </c>
-      <c r="V567" t="n">
-        <v>566</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -39097,9 +37394,6 @@
       <c r="U568" t="n">
         <v>0</v>
       </c>
-      <c r="V568" t="n">
-        <v>567</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -39165,9 +37459,6 @@
       <c r="U569" t="n">
         <v>1</v>
       </c>
-      <c r="V569" t="n">
-        <v>568</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -39233,9 +37524,6 @@
       <c r="U570" t="n">
         <v>0</v>
       </c>
-      <c r="V570" t="n">
-        <v>569</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -39301,9 +37589,6 @@
       <c r="U571" t="n">
         <v>1</v>
       </c>
-      <c r="V571" t="n">
-        <v>570</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -39369,9 +37654,6 @@
       <c r="U572" t="n">
         <v>0</v>
       </c>
-      <c r="V572" t="n">
-        <v>571</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -39437,9 +37719,6 @@
       <c r="U573" t="n">
         <v>0</v>
       </c>
-      <c r="V573" t="n">
-        <v>572</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -39505,9 +37784,6 @@
       <c r="U574" t="n">
         <v>1</v>
       </c>
-      <c r="V574" t="n">
-        <v>573</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -39573,9 +37849,6 @@
       <c r="U575" t="n">
         <v>0</v>
       </c>
-      <c r="V575" t="n">
-        <v>574</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -39641,9 +37914,6 @@
       <c r="U576" t="n">
         <v>1</v>
       </c>
-      <c r="V576" t="n">
-        <v>575</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -39709,9 +37979,6 @@
       <c r="U577" t="n">
         <v>1</v>
       </c>
-      <c r="V577" t="n">
-        <v>576</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -39777,9 +38044,6 @@
       <c r="U578" t="n">
         <v>1</v>
       </c>
-      <c r="V578" t="n">
-        <v>577</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -39845,9 +38109,6 @@
       <c r="U579" t="n">
         <v>1</v>
       </c>
-      <c r="V579" t="n">
-        <v>578</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -39913,9 +38174,6 @@
       <c r="U580" t="n">
         <v>0</v>
       </c>
-      <c r="V580" t="n">
-        <v>579</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -39981,9 +38239,6 @@
       <c r="U581" t="n">
         <v>1</v>
       </c>
-      <c r="V581" t="n">
-        <v>580</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -40049,9 +38304,6 @@
       <c r="U582" t="n">
         <v>0</v>
       </c>
-      <c r="V582" t="n">
-        <v>581</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -40117,9 +38369,6 @@
       <c r="U583" t="n">
         <v>0</v>
       </c>
-      <c r="V583" t="n">
-        <v>582</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -40185,9 +38434,6 @@
       <c r="U584" t="n">
         <v>0</v>
       </c>
-      <c r="V584" t="n">
-        <v>583</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -40253,9 +38499,6 @@
       <c r="U585" t="n">
         <v>1</v>
       </c>
-      <c r="V585" t="n">
-        <v>584</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -40321,9 +38564,6 @@
       <c r="U586" t="n">
         <v>1</v>
       </c>
-      <c r="V586" t="n">
-        <v>585</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -40389,9 +38629,6 @@
       <c r="U587" t="n">
         <v>1</v>
       </c>
-      <c r="V587" t="n">
-        <v>586</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -40457,9 +38694,6 @@
       <c r="U588" t="n">
         <v>0</v>
       </c>
-      <c r="V588" t="n">
-        <v>587</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -40525,9 +38759,6 @@
       <c r="U589" t="n">
         <v>1</v>
       </c>
-      <c r="V589" t="n">
-        <v>588</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -40593,9 +38824,6 @@
       <c r="U590" t="n">
         <v>0</v>
       </c>
-      <c r="V590" t="n">
-        <v>589</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -40661,9 +38889,6 @@
       <c r="U591" t="n">
         <v>1</v>
       </c>
-      <c r="V591" t="n">
-        <v>590</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -40729,9 +38954,6 @@
       <c r="U592" t="n">
         <v>1</v>
       </c>
-      <c r="V592" t="n">
-        <v>591</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -40797,9 +39019,6 @@
       <c r="U593" t="n">
         <v>1</v>
       </c>
-      <c r="V593" t="n">
-        <v>592</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -40865,9 +39084,6 @@
       <c r="U594" t="n">
         <v>1</v>
       </c>
-      <c r="V594" t="n">
-        <v>593</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -40933,9 +39149,6 @@
       <c r="U595" t="n">
         <v>0</v>
       </c>
-      <c r="V595" t="n">
-        <v>594</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -41001,9 +39214,6 @@
       <c r="U596" t="n">
         <v>0</v>
       </c>
-      <c r="V596" t="n">
-        <v>595</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -41069,9 +39279,6 @@
       <c r="U597" t="n">
         <v>1</v>
       </c>
-      <c r="V597" t="n">
-        <v>596</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -41137,9 +39344,6 @@
       <c r="U598" t="n">
         <v>1</v>
       </c>
-      <c r="V598" t="n">
-        <v>597</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -41205,9 +39409,6 @@
       <c r="U599" t="n">
         <v>0</v>
       </c>
-      <c r="V599" t="n">
-        <v>598</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -41273,9 +39474,6 @@
       <c r="U600" t="n">
         <v>1</v>
       </c>
-      <c r="V600" t="n">
-        <v>599</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -41341,9 +39539,6 @@
       <c r="U601" t="n">
         <v>1</v>
       </c>
-      <c r="V601" t="n">
-        <v>600</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -41409,9 +39604,6 @@
       <c r="U602" t="n">
         <v>1</v>
       </c>
-      <c r="V602" t="n">
-        <v>601</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -41477,9 +39669,6 @@
       <c r="U603" t="n">
         <v>1</v>
       </c>
-      <c r="V603" t="n">
-        <v>602</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -41545,9 +39734,6 @@
       <c r="U604" t="n">
         <v>0</v>
       </c>
-      <c r="V604" t="n">
-        <v>603</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -41613,9 +39799,6 @@
       <c r="U605" t="n">
         <v>1</v>
       </c>
-      <c r="V605" t="n">
-        <v>604</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -41681,9 +39864,6 @@
       <c r="U606" t="n">
         <v>1</v>
       </c>
-      <c r="V606" t="n">
-        <v>605</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -41749,9 +39929,6 @@
       <c r="U607" t="n">
         <v>1</v>
       </c>
-      <c r="V607" t="n">
-        <v>606</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -41817,9 +39994,6 @@
       <c r="U608" t="n">
         <v>1</v>
       </c>
-      <c r="V608" t="n">
-        <v>607</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -41885,9 +40059,6 @@
       <c r="U609" t="n">
         <v>1</v>
       </c>
-      <c r="V609" t="n">
-        <v>608</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -41953,9 +40124,6 @@
       <c r="U610" t="n">
         <v>1</v>
       </c>
-      <c r="V610" t="n">
-        <v>609</v>
-      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -42021,9 +40189,6 @@
       <c r="U611" t="n">
         <v>1</v>
       </c>
-      <c r="V611" t="n">
-        <v>610</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -42088,9 +40253,6 @@
       </c>
       <c r="U612" t="n">
         <v>0</v>
-      </c>
-      <c r="V612" t="n">
-        <v>611</v>
       </c>
     </row>
   </sheetData>
